--- a/Results/Baseline/Price/Results_world_base_price_Max.xlsx
+++ b/Results/Baseline/Price/Results_world_base_price_Max.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>238.2077456393067</v>
+        <v>238.2077440031373</v>
       </c>
       <c r="E2">
-        <v>275.1071191167887</v>
+        <v>275.1071162022218</v>
       </c>
       <c r="F2">
-        <v>454.7597820732065</v>
+        <v>454.7597764420685</v>
       </c>
       <c r="G2">
-        <v>336.9226627737758</v>
+        <v>336.9226524876848</v>
       </c>
       <c r="H2">
-        <v>862.7361207886225</v>
+        <v>862.7361053777086</v>
       </c>
       <c r="I2">
-        <v>495.7261646795157</v>
+        <v>495.7261373277765</v>
       </c>
       <c r="J2">
-        <v>553.2052084900135</v>
+        <v>553.205158059198</v>
       </c>
       <c r="K2">
-        <v>636.3272305550032</v>
+        <v>636.3271294623415</v>
       </c>
       <c r="L2">
-        <v>507.2683794594956</v>
+        <v>507.2681743853582</v>
       </c>
       <c r="M2">
-        <v>622.606822336452</v>
+        <v>622.6063146359381</v>
       </c>
       <c r="N2">
-        <v>316.5839957648262</v>
+        <v>316.5826057709043</v>
       </c>
       <c r="O2">
-        <v>352.78104421635</v>
+        <v>352.7777195551799</v>
       </c>
       <c r="P2">
-        <v>709.7703700139696</v>
+        <v>709.761768074106</v>
       </c>
       <c r="Q2">
-        <v>725.0756944976753</v>
+        <v>725.0573964468746</v>
       </c>
       <c r="R2">
-        <v>741.0127323392361</v>
+        <v>740.9845105592168</v>
       </c>
       <c r="S2">
-        <v>1818.078378998874</v>
+        <v>1818.051708216266</v>
       </c>
       <c r="T2">
-        <v>1810.88656019013</v>
+        <v>1810.870181194189</v>
       </c>
       <c r="U2">
-        <v>1813.259566867077</v>
+        <v>1813.245372579475</v>
       </c>
       <c r="V2">
-        <v>1827.297833652279</v>
+        <v>1827.276039490078</v>
       </c>
       <c r="W2">
-        <v>1842.67464009071</v>
+        <v>1842.644140209144</v>
       </c>
       <c r="X2">
-        <v>1703.999338617382</v>
+        <v>1703.957665299301</v>
       </c>
       <c r="Y2">
-        <v>1726.015053492091</v>
+        <v>1725.959052906746</v>
       </c>
       <c r="Z2">
-        <v>1742.466310925372</v>
+        <v>1742.400762556211</v>
       </c>
       <c r="AA2">
-        <v>1762.150340435951</v>
+        <v>1762.072567004537</v>
       </c>
       <c r="AB2">
-        <v>1817.306081793824</v>
+        <v>1817.186314007756</v>
       </c>
       <c r="AC2">
-        <v>681.4607291049847</v>
+        <v>681.2710941334158</v>
       </c>
       <c r="AD2">
-        <v>781.6340439778704</v>
+        <v>781.3647901565421</v>
       </c>
       <c r="AE2">
-        <v>878.6576093222894</v>
+        <v>878.3113137323547</v>
       </c>
       <c r="AF2">
-        <v>870.3389218027977</v>
+        <v>870.0037895457106</v>
       </c>
       <c r="AG2">
-        <v>834.2123504805817</v>
+        <v>833.9116537507587</v>
       </c>
       <c r="AH2">
-        <v>661.5547061814158</v>
+        <v>661.2603926851078</v>
       </c>
       <c r="AI2">
-        <v>638.8443519192024</v>
+        <v>638.5727745721781</v>
       </c>
       <c r="AJ2">
-        <v>609.6342953860453</v>
+        <v>609.3903404430065</v>
       </c>
       <c r="AK2">
-        <v>590.1104353886161</v>
+        <v>589.8851580282305</v>
       </c>
       <c r="AL2">
-        <v>670.440226852309</v>
+        <v>670.1489320657373</v>
       </c>
       <c r="AM2">
-        <v>850.7599749542974</v>
+        <v>850.3181124121288</v>
       </c>
       <c r="AN2">
-        <v>1049.366757739004</v>
+        <v>1048.758598636857</v>
       </c>
       <c r="AO2">
-        <v>1331.602907440849</v>
+        <v>1330.757125030873</v>
       </c>
       <c r="AP2">
-        <v>1693.602800766273</v>
+        <v>1692.451469351673</v>
       </c>
       <c r="AQ2">
-        <v>1879.93620109069</v>
+        <v>1878.629052463815</v>
       </c>
       <c r="AR2">
-        <v>1899.270216765393</v>
+        <v>1897.949929691484</v>
       </c>
       <c r="AS2">
-        <v>1897.939177838211</v>
+        <v>1896.623712811167</v>
       </c>
       <c r="AT2">
-        <v>1877.076397228904</v>
+        <v>1875.782812858267</v>
       </c>
       <c r="AU2">
-        <v>1839.729687915372</v>
+        <v>1838.472487410962</v>
       </c>
       <c r="AV2">
-        <v>1826.886816266703</v>
+        <v>1825.653721939149</v>
       </c>
       <c r="AW2">
-        <v>1801.656081386513</v>
+        <v>1800.452895342741</v>
       </c>
       <c r="AX2">
-        <v>1896.622208689075</v>
+        <v>1895.511820569336</v>
       </c>
       <c r="AY2">
-        <v>1657.265691803137</v>
+        <v>1656.366623337384</v>
       </c>
       <c r="AZ2">
-        <v>1329.263965481941</v>
+        <v>1328.652203282499</v>
       </c>
       <c r="BA2">
-        <v>1190.325935712712</v>
+        <v>1189.84045897701</v>
       </c>
       <c r="BB2">
-        <v>1183.878028324227</v>
+        <v>1183.385366717992</v>
       </c>
       <c r="BC2">
-        <v>1164.798675681672</v>
+        <v>1164.329668083958</v>
       </c>
       <c r="BD2">
-        <v>1102.429790719585</v>
+        <v>1102.020796584163</v>
       </c>
       <c r="BE2">
-        <v>1028.238532226227</v>
+        <v>1027.899244115082</v>
       </c>
       <c r="BF2">
-        <v>985.5362002410644</v>
+        <v>985.2392151359196</v>
       </c>
       <c r="BG2">
-        <v>960.2793997016247</v>
+        <v>959.9891505218966</v>
       </c>
       <c r="BH2">
-        <v>1004.379489218134</v>
+        <v>1004.056989844182</v>
       </c>
       <c r="BI2">
-        <v>1118.159006521314</v>
+        <v>1117.744893832856</v>
       </c>
       <c r="BJ2">
-        <v>1300.817588986381</v>
+        <v>1300.25329036676</v>
       </c>
       <c r="BK2">
-        <v>1530.481348827007</v>
+        <v>1529.726767655626</v>
       </c>
       <c r="BL2">
-        <v>1767.915268385438</v>
+        <v>1766.948529981313</v>
       </c>
       <c r="BM2">
-        <v>1999.385011853786</v>
+        <v>1998.226524106931</v>
       </c>
       <c r="BN2">
-        <v>2137.83843502372</v>
+        <v>2136.56744622373</v>
       </c>
       <c r="BO2">
-        <v>2179.297623635554</v>
+        <v>2177.996839892478</v>
       </c>
       <c r="BP2">
-        <v>2175.19419695115</v>
+        <v>2173.90257108617</v>
       </c>
       <c r="BQ2">
-        <v>2144.330190700973</v>
+        <v>2143.060346175737</v>
       </c>
       <c r="BR2">
-        <v>2120.85014200659</v>
+        <v>2119.606737887415</v>
       </c>
       <c r="BS2">
-        <v>2097.791201627407</v>
+        <v>2096.57415471744</v>
       </c>
       <c r="BT2">
-        <v>2066.036432651728</v>
+        <v>2064.853495836663</v>
       </c>
       <c r="BU2">
-        <v>1989.393164721572</v>
+        <v>1988.282975235731</v>
       </c>
       <c r="BV2">
-        <v>1811.766763620824</v>
+        <v>1810.805601998609</v>
       </c>
       <c r="BW2">
-        <v>1621.480698350672</v>
+        <v>1620.690039805334</v>
       </c>
       <c r="BX2">
-        <v>1507.79761139022</v>
+        <v>1507.112170900586</v>
       </c>
       <c r="BY2">
-        <v>1464.438274681443</v>
+        <v>1463.797904582453</v>
       </c>
       <c r="BZ2">
-        <v>1431.562977836624</v>
+        <v>1430.958431729634</v>
       </c>
       <c r="CA2">
-        <v>1372.688326071089</v>
+        <v>1372.130894055118</v>
       </c>
       <c r="CB2">
-        <v>1328.813140258983</v>
+        <v>1328.300817738968</v>
       </c>
       <c r="CC2">
-        <v>1310.121794745102</v>
+        <v>1309.63289571313</v>
       </c>
       <c r="CD2">
-        <v>1332.922198009655</v>
+        <v>1332.421180947235</v>
       </c>
       <c r="CE2">
-        <v>1411.554246689209</v>
+        <v>1410.993490913404</v>
       </c>
       <c r="CF2">
-        <v>1536.22931900285</v>
+        <v>1535.557749907275</v>
       </c>
       <c r="CG2">
-        <v>1723.977352091442</v>
+        <v>1723.153712346397</v>
       </c>
       <c r="CH2">
-        <v>1936.860405259149</v>
+        <v>1935.863273437401</v>
       </c>
       <c r="CI2">
-        <v>2143.644089636161</v>
+        <v>2142.478588132189</v>
       </c>
       <c r="CJ2">
-        <v>2311.55094600462</v>
+        <v>2310.250122770859</v>
       </c>
       <c r="CK2">
-        <v>2394.390272789175</v>
+        <v>2393.010103853811</v>
       </c>
       <c r="CL2">
-        <v>2431.457411209788</v>
+        <v>2430.053843172518</v>
       </c>
       <c r="CM2">
-        <v>2427.467760644656</v>
+        <v>2426.075823189042</v>
       </c>
       <c r="CN2">
-        <v>2405.161067944921</v>
+        <v>2403.796459960463</v>
       </c>
       <c r="CO2">
-        <v>2375.581667569336</v>
+        <v>2374.250723338992</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>14.99156510492382</v>
+        <v>14.99156499716545</v>
       </c>
       <c r="E3">
-        <v>17.41766213896122</v>
+        <v>17.41766194705206</v>
       </c>
       <c r="F3">
-        <v>29.37563715000538</v>
+        <v>29.37563677957414</v>
       </c>
       <c r="G3">
-        <v>21.46208701878296</v>
+        <v>21.46208634436563</v>
       </c>
       <c r="H3">
-        <v>56.86775346163441</v>
+        <v>56.86775246140935</v>
       </c>
       <c r="I3">
-        <v>32.20743704451018</v>
+        <v>32.20743531821053</v>
       </c>
       <c r="J3">
-        <v>35.965667014274</v>
+        <v>35.96566404274265</v>
       </c>
       <c r="K3">
-        <v>41.40920034597468</v>
+        <v>41.40919520256972</v>
       </c>
       <c r="L3">
-        <v>32.78200585092682</v>
+        <v>32.78199779827708</v>
       </c>
       <c r="M3">
-        <v>40.46221126808728</v>
+        <v>40.46219737094547</v>
       </c>
       <c r="N3">
-        <v>19.77367964333103</v>
+        <v>19.77365398197553</v>
       </c>
       <c r="O3">
-        <v>22.33607041328936</v>
+        <v>22.33602726262709</v>
       </c>
       <c r="P3">
-        <v>46.23753376834216</v>
+        <v>46.23745040705489</v>
       </c>
       <c r="Q3">
-        <v>47.23741191954979</v>
+        <v>47.23727647809505</v>
       </c>
       <c r="R3">
-        <v>48.28017645614349</v>
+        <v>48.28000817289785</v>
       </c>
       <c r="S3">
-        <v>120.554124321072</v>
+        <v>120.5539458712656</v>
       </c>
       <c r="T3">
-        <v>120.0231709016811</v>
+        <v>120.0229763545746</v>
       </c>
       <c r="U3">
-        <v>120.1393746777882</v>
+        <v>120.1391530884197</v>
       </c>
       <c r="V3">
-        <v>121.044911998215</v>
+        <v>121.0446578040807</v>
       </c>
       <c r="W3">
-        <v>122.0410152438578</v>
+        <v>122.0407275745566</v>
       </c>
       <c r="X3">
-        <v>112.695621510885</v>
+        <v>112.6952976880134</v>
       </c>
       <c r="Y3">
-        <v>114.1424897875349</v>
+        <v>114.1421228366808</v>
       </c>
       <c r="Z3">
-        <v>115.2128733964203</v>
+        <v>115.2124717498165</v>
       </c>
       <c r="AA3">
-        <v>116.5020098593715</v>
+        <v>116.5015733151664</v>
       </c>
       <c r="AB3">
-        <v>120.1913765950849</v>
+        <v>120.1908901782805</v>
       </c>
       <c r="AC3">
-        <v>43.93142685529384</v>
+        <v>43.93088028503939</v>
       </c>
       <c r="AD3">
-        <v>50.66582299545529</v>
+        <v>50.66519963162362</v>
       </c>
       <c r="AE3">
-        <v>57.18693346033502</v>
+        <v>57.18621919960521</v>
       </c>
       <c r="AF3">
-        <v>56.57959205023492</v>
+        <v>56.57879445882097</v>
       </c>
       <c r="AG3">
-        <v>54.09031438749405</v>
+        <v>54.08941786585346</v>
       </c>
       <c r="AH3">
-        <v>42.45089871498577</v>
+        <v>42.44986032714318</v>
       </c>
       <c r="AI3">
-        <v>40.86714708946774</v>
+        <v>40.86590823228595</v>
       </c>
       <c r="AJ3">
-        <v>38.8428795142069</v>
+        <v>38.84136640283199</v>
       </c>
       <c r="AK3">
-        <v>37.47318857960906</v>
+        <v>37.47130213297499</v>
       </c>
       <c r="AL3">
-        <v>42.85938247994842</v>
+        <v>42.85698682518339</v>
       </c>
       <c r="AM3">
-        <v>55.01045060751822</v>
+        <v>55.00742900006102</v>
       </c>
       <c r="AN3">
-        <v>68.39844172984975</v>
+        <v>68.39473383977786</v>
       </c>
       <c r="AO3">
-        <v>87.44458024323288</v>
+        <v>87.4400600992448</v>
       </c>
       <c r="AP3">
-        <v>111.887531390097</v>
+        <v>111.8820995228385</v>
       </c>
       <c r="AQ3">
-        <v>124.4450735057831</v>
+        <v>124.438968367411</v>
       </c>
       <c r="AR3">
-        <v>125.7022762299345</v>
+        <v>125.6957540059041</v>
       </c>
       <c r="AS3">
-        <v>125.562028395197</v>
+        <v>125.555190321383</v>
       </c>
       <c r="AT3">
-        <v>124.1012171140325</v>
+        <v>124.0941831196624</v>
       </c>
       <c r="AU3">
-        <v>121.5262065601458</v>
+        <v>121.5191071329099</v>
       </c>
       <c r="AV3">
-        <v>120.6032179537858</v>
+        <v>120.5961531681508</v>
       </c>
       <c r="AW3">
-        <v>118.8440397630211</v>
+        <v>118.8371392801114</v>
       </c>
       <c r="AX3">
-        <v>125.121892094738</v>
+        <v>125.1153663079751</v>
       </c>
       <c r="AY3">
-        <v>108.8791519442372</v>
+        <v>108.8732805946981</v>
       </c>
       <c r="AZ3">
-        <v>86.63941001018982</v>
+        <v>86.6343807163673</v>
       </c>
       <c r="BA3">
-        <v>77.1920322076314</v>
+        <v>77.18763765819153</v>
       </c>
       <c r="BB3">
-        <v>76.71669750143161</v>
+        <v>76.71271908281548</v>
       </c>
       <c r="BC3">
-        <v>75.37358571532353</v>
+        <v>75.37000613113109</v>
       </c>
       <c r="BD3">
-        <v>71.10083762058139</v>
+        <v>71.09763927073335</v>
       </c>
       <c r="BE3">
-        <v>66.02743470567317</v>
+        <v>66.02455595683925</v>
       </c>
       <c r="BF3">
-        <v>63.0836058131824</v>
+        <v>63.08090708433815</v>
       </c>
       <c r="BG3">
-        <v>61.32763976772168</v>
+        <v>61.32496142526195</v>
       </c>
       <c r="BH3">
-        <v>64.25104265819999</v>
+        <v>64.24823911439275</v>
       </c>
       <c r="BI3">
-        <v>71.88831324199019</v>
+        <v>71.88523928586176</v>
       </c>
       <c r="BJ3">
-        <v>84.1854565321059</v>
+        <v>84.18198460608512</v>
       </c>
       <c r="BK3">
-        <v>99.66252047156775</v>
+        <v>99.6585500064607</v>
       </c>
       <c r="BL3">
-        <v>115.6711214636446</v>
+        <v>115.6665854585137</v>
       </c>
       <c r="BM3">
-        <v>131.2666366219227</v>
+        <v>131.2615451145357</v>
       </c>
       <c r="BN3">
-        <v>140.5686045035987</v>
+        <v>140.5630683962292</v>
       </c>
       <c r="BO3">
-        <v>143.3080230377897</v>
+        <v>143.3021727144192</v>
       </c>
       <c r="BP3">
-        <v>142.9648905264444</v>
+        <v>142.958805549564</v>
       </c>
       <c r="BQ3">
-        <v>140.8131889560319</v>
+        <v>140.8069210126489</v>
       </c>
       <c r="BR3">
-        <v>139.1549885661383</v>
+        <v>139.1485868101338</v>
       </c>
       <c r="BS3">
-        <v>137.5257826168528</v>
+        <v>137.5192980111276</v>
       </c>
       <c r="BT3">
-        <v>135.3087903401043</v>
+        <v>135.3022932371332</v>
       </c>
       <c r="BU3">
-        <v>130.0552547078836</v>
+        <v>130.0488654437873</v>
       </c>
       <c r="BV3">
-        <v>117.9719623831433</v>
+        <v>117.9658540706506</v>
       </c>
       <c r="BW3">
-        <v>105.0262462290568</v>
+        <v>105.0204989567183</v>
       </c>
       <c r="BX3">
-        <v>97.26380492811869</v>
+        <v>97.25835083526481</v>
       </c>
       <c r="BY3">
-        <v>94.25960239912642</v>
+        <v>94.25436016906313</v>
       </c>
       <c r="BZ3">
-        <v>91.96474955507964</v>
+        <v>91.95969894082127</v>
       </c>
       <c r="CA3">
-        <v>87.9130240228413</v>
+        <v>87.90816921175667</v>
       </c>
       <c r="CB3">
-        <v>84.8693365016115</v>
+        <v>84.86465632478776</v>
       </c>
       <c r="CC3">
-        <v>83.52933647353193</v>
+        <v>83.52477154904322</v>
       </c>
       <c r="CD3">
-        <v>84.99635689536107</v>
+        <v>84.9918228449137</v>
       </c>
       <c r="CE3">
-        <v>90.24064883258218</v>
+        <v>90.23604764328803</v>
       </c>
       <c r="CF3">
-        <v>98.6025423056266</v>
+        <v>98.59777653673741</v>
       </c>
       <c r="CG3">
-        <v>111.2241528138344</v>
+        <v>111.2191389535469</v>
       </c>
       <c r="CH3">
-        <v>125.546092199022</v>
+        <v>125.5407709415999</v>
       </c>
       <c r="CI3">
-        <v>139.4550378924468</v>
+        <v>139.4493872231408</v>
       </c>
       <c r="CJ3">
-        <v>150.7333139415589</v>
+        <v>150.7273571561411</v>
       </c>
       <c r="CK3">
-        <v>156.2614132906752</v>
+        <v>156.2552150117765</v>
       </c>
       <c r="CL3">
-        <v>158.6821793912632</v>
+        <v>158.6758131032706</v>
       </c>
       <c r="CM3">
-        <v>158.3250356585098</v>
+        <v>158.3185532716699</v>
       </c>
       <c r="CN3">
-        <v>156.7286402452209</v>
+        <v>156.7220739711803</v>
       </c>
       <c r="CO3">
-        <v>154.6403334081658</v>
+        <v>154.6337098942899</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>24067672.61794935</v>
+        <v>24067653.7278982</v>
       </c>
       <c r="E4">
-        <v>24343023.76405215</v>
+        <v>24342990.12210053</v>
       </c>
       <c r="F4">
-        <v>26705814.21198241</v>
+        <v>26705749.27306316</v>
       </c>
       <c r="G4">
-        <v>26789070.52761677</v>
+        <v>26788952.28777868</v>
       </c>
       <c r="H4">
-        <v>24393838.99581083</v>
+        <v>24393663.59199544</v>
       </c>
       <c r="I4">
-        <v>23927448.64189947</v>
+        <v>23927145.7189053</v>
       </c>
       <c r="J4">
-        <v>26389997.24824171</v>
+        <v>26389475.02430129</v>
       </c>
       <c r="K4">
-        <v>29863902.71988244</v>
+        <v>29862995.73224224</v>
       </c>
       <c r="L4">
-        <v>29662742.98964539</v>
+        <v>29661313.14106187</v>
       </c>
       <c r="M4">
-        <v>31556452.24474588</v>
+        <v>31553954.10812925</v>
       </c>
       <c r="N4">
-        <v>34155831.13913042</v>
+        <v>34151134.93349309</v>
       </c>
       <c r="O4">
-        <v>31696067.7168939</v>
+        <v>31688012.608326</v>
       </c>
       <c r="P4">
-        <v>35214788.54635401</v>
+        <v>35198981.60807884</v>
       </c>
       <c r="Q4">
-        <v>36436948.7056656</v>
+        <v>36411081.03814065</v>
       </c>
       <c r="R4">
-        <v>37644949.73864775</v>
+        <v>37612887.89767105</v>
       </c>
       <c r="S4">
-        <v>42995465.89656454</v>
+        <v>42961753.65376543</v>
       </c>
       <c r="T4">
-        <v>44313609.84788794</v>
+        <v>44277130.78208701</v>
       </c>
       <c r="U4">
-        <v>45638879.48871269</v>
+        <v>45597534.0869813</v>
       </c>
       <c r="V4">
-        <v>46967382.09127488</v>
+        <v>46920133.51179598</v>
       </c>
       <c r="W4">
-        <v>48296130.51353395</v>
+        <v>48242858.9211334</v>
       </c>
       <c r="X4">
-        <v>49189814.99245147</v>
+        <v>49130036.14195476</v>
       </c>
       <c r="Y4">
-        <v>50437165.03319277</v>
+        <v>50369538.96410672</v>
       </c>
       <c r="Z4">
-        <v>51678405.62948056</v>
+        <v>51604637.84031389</v>
       </c>
       <c r="AA4">
-        <v>52919363.51235849</v>
+        <v>52839465.93886963</v>
       </c>
       <c r="AB4">
-        <v>54169397.73375376</v>
+        <v>54080503.43704019</v>
       </c>
       <c r="AC4">
-        <v>50742481.23801043</v>
+        <v>50642704.93808085</v>
       </c>
       <c r="AD4">
-        <v>52012147.43420466</v>
+        <v>51898417.469247</v>
       </c>
       <c r="AE4">
-        <v>53289842.87882382</v>
+        <v>53159700.48511171</v>
       </c>
       <c r="AF4">
-        <v>54562343.33698826</v>
+        <v>54417716.31323347</v>
       </c>
       <c r="AG4">
-        <v>55842627.28706422</v>
+        <v>55681073.05681672</v>
       </c>
       <c r="AH4">
-        <v>56341242.2370016</v>
+        <v>56155121.80071884</v>
       </c>
       <c r="AI4">
-        <v>57702919.27061595</v>
+        <v>57481633.58567873</v>
       </c>
       <c r="AJ4">
-        <v>59110201.86916429</v>
+        <v>58840286.25100613</v>
       </c>
       <c r="AK4">
-        <v>60580222.54011112</v>
+        <v>60243283.22174483</v>
       </c>
       <c r="AL4">
-        <v>62136527.71418939</v>
+        <v>61706920.86029945</v>
       </c>
       <c r="AM4">
-        <v>63741516.743263</v>
+        <v>63197269.98243342</v>
       </c>
       <c r="AN4">
-        <v>65383546.1635021</v>
+        <v>64713584.73853783</v>
       </c>
       <c r="AO4">
-        <v>67109724.35351044</v>
+        <v>66289669.76444049</v>
       </c>
       <c r="AP4">
-        <v>68904103.4353404</v>
+        <v>67914373.72755606</v>
       </c>
       <c r="AQ4">
-        <v>70536413.12696888</v>
+        <v>69423661.96586421</v>
       </c>
       <c r="AR4">
-        <v>71984331.62875617</v>
+        <v>70798152.14160332</v>
       </c>
       <c r="AS4">
-        <v>73370827.73761226</v>
+        <v>72129646.20650221</v>
       </c>
       <c r="AT4">
-        <v>74685693.84748867</v>
+        <v>73411141.61657384</v>
       </c>
       <c r="AU4">
-        <v>75923627.37841372</v>
+        <v>74639063.81735751</v>
       </c>
       <c r="AV4">
-        <v>77562892.92706275</v>
+        <v>76285490.90575817</v>
       </c>
       <c r="AW4">
-        <v>78879998.39275397</v>
+        <v>77632804.50137229</v>
       </c>
       <c r="AX4">
-        <v>80124216.85812367</v>
+        <v>78946461.67414361</v>
       </c>
       <c r="AY4">
-        <v>80996279.01657331</v>
+        <v>79941305.68715739</v>
       </c>
       <c r="AZ4">
-        <v>81746023.13017784</v>
+        <v>80849516.08656459</v>
       </c>
       <c r="BA4">
-        <v>82643136.06102474</v>
+        <v>81863373.4864331</v>
       </c>
       <c r="BB4">
-        <v>83684359.72155054</v>
+        <v>82978028.90721452</v>
       </c>
       <c r="BC4">
-        <v>84824180.84871466</v>
+        <v>84188367.65818579</v>
       </c>
       <c r="BD4">
-        <v>85970820.15194112</v>
+        <v>85403125.22078817</v>
       </c>
       <c r="BE4">
-        <v>87151753.35309868</v>
+        <v>86641546.08671527</v>
       </c>
       <c r="BF4">
-        <v>88419294.46031363</v>
+        <v>87940858.71760902</v>
       </c>
       <c r="BG4">
-        <v>89768226.18886268</v>
+        <v>89292033.36483641</v>
       </c>
       <c r="BH4">
-        <v>91294045.61226937</v>
+        <v>90793327.9121538</v>
       </c>
       <c r="BI4">
-        <v>92909577.15333143</v>
+        <v>92357478.84185316</v>
       </c>
       <c r="BJ4">
-        <v>94604062.78830615</v>
+        <v>93976936.25707205</v>
       </c>
       <c r="BK4">
-        <v>96361132.23300999</v>
+        <v>95640313.52359343</v>
       </c>
       <c r="BL4">
-        <v>98140068.8304392</v>
+        <v>97313162.08186252</v>
       </c>
       <c r="BM4">
-        <v>99974990.365979</v>
+        <v>99044468.6431701</v>
       </c>
       <c r="BN4">
-        <v>101732448.0889052</v>
+        <v>100720382.5228197</v>
       </c>
       <c r="BO4">
-        <v>103400613.9062351</v>
+        <v>102332622.8092818</v>
       </c>
       <c r="BP4">
-        <v>105016014.1976599</v>
+        <v>103907403.7148323</v>
       </c>
       <c r="BQ4">
-        <v>106652316.7289316</v>
+        <v>105512647.7734193</v>
       </c>
       <c r="BR4">
-        <v>108304967.9248079</v>
+        <v>107143103.3090702</v>
       </c>
       <c r="BS4">
-        <v>109927721.826183</v>
+        <v>108752731.4046072</v>
       </c>
       <c r="BT4">
-        <v>111507647.0230457</v>
+        <v>110332333.2429411</v>
       </c>
       <c r="BU4">
-        <v>113010410.6251838</v>
+        <v>111857408.3579071</v>
       </c>
       <c r="BV4">
-        <v>114426200.4756157</v>
+        <v>113328586.4932778</v>
       </c>
       <c r="BW4">
-        <v>115837037.1138294</v>
+        <v>114809584.8437056</v>
       </c>
       <c r="BX4">
-        <v>117299982.9358068</v>
+        <v>116328371.3484494</v>
       </c>
       <c r="BY4">
-        <v>118823563.8601748</v>
+        <v>117891006.4821515</v>
       </c>
       <c r="BZ4">
-        <v>120364361.7870929</v>
+        <v>119466381.7651784</v>
       </c>
       <c r="CA4">
-        <v>121934331.7503025</v>
+        <v>121071559.469428</v>
       </c>
       <c r="CB4">
-        <v>123565625.9436287</v>
+        <v>122733971.5107036</v>
       </c>
       <c r="CC4">
-        <v>125236193.9248598</v>
+        <v>124424289.0893602</v>
       </c>
       <c r="CD4">
-        <v>126961895.7302995</v>
+        <v>126153665.76518</v>
       </c>
       <c r="CE4">
-        <v>128750913.0843691</v>
+        <v>127927764.7407822</v>
       </c>
       <c r="CF4">
-        <v>130630908.5701049</v>
+        <v>129774465.9204876</v>
       </c>
       <c r="CG4">
-        <v>132616110.1898139</v>
+        <v>131710777.1609591</v>
       </c>
       <c r="CH4">
-        <v>134637319.9394135</v>
+        <v>133672240.722567</v>
       </c>
       <c r="CI4">
-        <v>136669471.1331572</v>
+        <v>135641059.3564934</v>
       </c>
       <c r="CJ4">
-        <v>138682089.9451113</v>
+        <v>137595571.7542221</v>
       </c>
       <c r="CK4">
-        <v>140651878.5566835</v>
+        <v>139520477.4968209</v>
       </c>
       <c r="CL4">
-        <v>142641638.2659302</v>
+        <v>141480146.5069685</v>
       </c>
       <c r="CM4">
-        <v>144594974.2318647</v>
+        <v>143413737.2851796</v>
       </c>
       <c r="CN4">
-        <v>146526418.0275784</v>
+        <v>145331714.1464282</v>
       </c>
       <c r="CO4">
-        <v>148440636.9134252</v>
+        <v>147237488.0325167</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1540832.823110272</v>
+        <v>1540832.618645904</v>
       </c>
       <c r="E5">
-        <v>905627.2110030276</v>
+        <v>905626.8468897486</v>
       </c>
       <c r="F5">
-        <v>454174.3552258252</v>
+        <v>454173.6525489102</v>
       </c>
       <c r="G5">
-        <v>279539.3271990353</v>
+        <v>279538.0487449715</v>
       </c>
       <c r="H5">
-        <v>262355.5480875882</v>
+        <v>262353.6556134509</v>
       </c>
       <c r="I5">
-        <v>187038.4843525522</v>
+        <v>187035.2341726728</v>
       </c>
       <c r="J5">
-        <v>154437.727777106</v>
+        <v>154432.1996862054</v>
       </c>
       <c r="K5">
-        <v>200508.879589489</v>
+        <v>200499.5688288134</v>
       </c>
       <c r="L5">
-        <v>362467.1474993219</v>
+        <v>362453.3961715251</v>
       </c>
       <c r="M5">
-        <v>321641.5155561632</v>
+        <v>321620.3448129292</v>
       </c>
       <c r="N5">
-        <v>407770.0118765211</v>
+        <v>407737.9141178961</v>
       </c>
       <c r="O5">
-        <v>511652.0977216482</v>
+        <v>511611.4104137522</v>
       </c>
       <c r="P5">
-        <v>3247334.144751954</v>
+        <v>3247276.194414807</v>
       </c>
       <c r="Q5">
-        <v>3263126.713859151</v>
+        <v>3263048.287391318</v>
       </c>
       <c r="R5">
-        <v>3282595.544428125</v>
+        <v>3282491.854026646</v>
       </c>
       <c r="S5">
-        <v>10318894.1327933</v>
+        <v>10318760.03848936</v>
       </c>
       <c r="T5">
-        <v>10346394.29582597</v>
+        <v>10346224.49169685</v>
       </c>
       <c r="U5">
-        <v>10377893.43353383</v>
+        <v>10377682.70249513</v>
       </c>
       <c r="V5">
-        <v>10413128.57074561</v>
+        <v>10412872.04010711</v>
       </c>
       <c r="W5">
-        <v>10451685.77684492</v>
+        <v>10451379.11493776</v>
       </c>
       <c r="X5">
-        <v>10031371.84838477</v>
+        <v>10031011.33406257</v>
       </c>
       <c r="Y5">
-        <v>10075283.39846542</v>
+        <v>10074865.77497019</v>
       </c>
       <c r="Z5">
-        <v>10121697.68736123</v>
+        <v>10121219.69391919</v>
       </c>
       <c r="AA5">
-        <v>10171331.19484642</v>
+        <v>10170788.63407676</v>
       </c>
       <c r="AB5">
-        <v>10226031.22120698</v>
+        <v>10225417.48298624</v>
       </c>
       <c r="AC5">
-        <v>2097467.988345979</v>
+        <v>2096771.993321012</v>
       </c>
       <c r="AD5">
-        <v>2174572.482843072</v>
+        <v>2173776.098773273</v>
       </c>
       <c r="AE5">
-        <v>2273181.747602911</v>
+        <v>2272256.931879507</v>
       </c>
       <c r="AF5">
-        <v>2402973.70194002</v>
+        <v>2401879.799687767</v>
       </c>
       <c r="AG5">
-        <v>2575159.545865908</v>
+        <v>2573841.278132599</v>
       </c>
       <c r="AH5">
-        <v>1251950.067105341</v>
+        <v>1250336.824812135</v>
       </c>
       <c r="AI5">
-        <v>1543358.413844657</v>
+        <v>1541365.33488456</v>
       </c>
       <c r="AJ5">
-        <v>1908366.649650221</v>
+        <v>1905897.751238745</v>
       </c>
       <c r="AK5">
-        <v>2351502.291538238</v>
+        <v>2348455.68062558</v>
       </c>
       <c r="AL5">
-        <v>2871871.149260663</v>
+        <v>2868146.088281779</v>
       </c>
       <c r="AM5">
-        <v>3462050.880661047</v>
+        <v>3457556.317459655</v>
       </c>
       <c r="AN5">
-        <v>4107404.767617291</v>
+        <v>4102068.747282756</v>
       </c>
       <c r="AO5">
-        <v>4785953.640578443</v>
+        <v>4779732.84683972</v>
       </c>
       <c r="AP5">
-        <v>5468928.21759265</v>
+        <v>5461816.851996798</v>
       </c>
       <c r="AQ5">
-        <v>6122216.888566717</v>
+        <v>6114253.723876734</v>
       </c>
       <c r="AR5">
-        <v>6708870.887993659</v>
+        <v>6700142.885669286</v>
       </c>
       <c r="AS5">
-        <v>7192487.303252773</v>
+        <v>7183128.835665853</v>
       </c>
       <c r="AT5">
-        <v>7541206.754906577</v>
+        <v>7531393.739014474</v>
       </c>
       <c r="AU5">
-        <v>7731673.24933571</v>
+        <v>7721612.057390523</v>
       </c>
       <c r="AV5">
-        <v>8797282.433781603</v>
+        <v>8787194.64808744</v>
       </c>
       <c r="AW5">
-        <v>8945357.424456472</v>
+        <v>8935462.353831498</v>
       </c>
       <c r="AX5">
-        <v>8644707.762856979</v>
+        <v>8635205.007148312</v>
       </c>
       <c r="AY5">
-        <v>8217797.524753665</v>
+        <v>8208851.771747959</v>
       </c>
       <c r="AZ5">
-        <v>7700162.945075508</v>
+        <v>7691892.537112359</v>
       </c>
       <c r="BA5">
-        <v>7132608.058637787</v>
+        <v>7125078.024948997</v>
       </c>
       <c r="BB5">
-        <v>6405919.67250962</v>
+        <v>6399139.465596611</v>
       </c>
       <c r="BC5">
-        <v>5865091.512446789</v>
+        <v>5859016.7876987</v>
       </c>
       <c r="BD5">
-        <v>5395372.359094423</v>
+        <v>5389910.397277993</v>
       </c>
       <c r="BE5">
-        <v>5026912.975895663</v>
+        <v>5021931.73378901</v>
       </c>
       <c r="BF5">
-        <v>4780492.4283231</v>
+        <v>4775832.748274753</v>
       </c>
       <c r="BG5">
-        <v>4516116.562707818</v>
+        <v>4511606.517853304</v>
       </c>
       <c r="BH5">
-        <v>4531927.265871776</v>
+        <v>4527396.805362361</v>
       </c>
       <c r="BI5">
-        <v>4666868.750486929</v>
+        <v>4662162.506695882</v>
       </c>
       <c r="BJ5">
-        <v>4902554.840208624</v>
+        <v>4897541.42299431</v>
       </c>
       <c r="BK5">
-        <v>5216658.492922081</v>
+        <v>5211235.630494928</v>
       </c>
       <c r="BL5">
-        <v>5473025.82749884</v>
+        <v>5467121.915117665</v>
       </c>
       <c r="BM5">
-        <v>5874027.372741658</v>
+        <v>5867600.707063454</v>
       </c>
       <c r="BN5">
-        <v>6285533.070105083</v>
+        <v>6278569.986770383</v>
       </c>
       <c r="BO5">
-        <v>6687794.750861107</v>
+        <v>6680307.33932237</v>
       </c>
       <c r="BP5">
-        <v>7062995.618214252</v>
+        <v>7055019.18370736</v>
       </c>
       <c r="BQ5">
-        <v>7317003.33077069</v>
+        <v>7308593.482581536</v>
       </c>
       <c r="BR5">
-        <v>7594000.030251991</v>
+        <v>7585229.241066579</v>
       </c>
       <c r="BS5">
-        <v>7805534.379708378</v>
+        <v>7796488.015880272</v>
       </c>
       <c r="BT5">
-        <v>7945100.629502383</v>
+        <v>7935872.545268201</v>
       </c>
       <c r="BU5">
-        <v>8009856.24629419</v>
+        <v>8000544.016186191</v>
       </c>
       <c r="BV5">
-        <v>7924203.561418143</v>
+        <v>7914903.395591993</v>
       </c>
       <c r="BW5">
-        <v>7846587.085885756</v>
+        <v>7837388.486976715</v>
       </c>
       <c r="BX5">
-        <v>7709527.55868641</v>
+        <v>7700508.011353662</v>
       </c>
       <c r="BY5">
-        <v>7525985.759931241</v>
+        <v>7517205.846344711</v>
       </c>
       <c r="BZ5">
-        <v>7312042.31780393</v>
+        <v>7303541.670916534</v>
       </c>
       <c r="CA5">
-        <v>7005343.115351231</v>
+        <v>6997137.749126362</v>
       </c>
       <c r="CB5">
-        <v>6785553.602567124</v>
+        <v>6777635.134865681</v>
       </c>
       <c r="CC5">
-        <v>6589829.133264179</v>
+        <v>6582166.170530158</v>
       </c>
       <c r="CD5">
-        <v>6433166.692725273</v>
+        <v>6425708.280783407</v>
       </c>
       <c r="CE5">
-        <v>6326683.965788112</v>
+        <v>6319364.651009934</v>
       </c>
       <c r="CF5">
-        <v>6186160.598816689</v>
+        <v>6178906.411502755</v>
       </c>
       <c r="CG5">
-        <v>6194927.994803656</v>
+        <v>6187662.604348835</v>
       </c>
       <c r="CH5">
-        <v>6259672.847930711</v>
+        <v>6252323.252341522</v>
       </c>
       <c r="CI5">
-        <v>6374173.308690712</v>
+        <v>6366674.628751559</v>
       </c>
       <c r="CJ5">
-        <v>6529394.202862523</v>
+        <v>6521693.352504279</v>
       </c>
       <c r="CK5">
-        <v>6590364.93604051</v>
+        <v>6582423.094210409</v>
       </c>
       <c r="CL5">
-        <v>6793248.499910283</v>
+        <v>6785042.401252376</v>
       </c>
       <c r="CM5">
-        <v>7001902.692562846</v>
+        <v>6993424.827791607</v>
       </c>
       <c r="CN5">
-        <v>7204820.056672472</v>
+        <v>7196077.91474497</v>
       </c>
       <c r="CO5">
-        <v>7391698.675359987</v>
+        <v>7382713.175641686</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>238.2077440031373</v>
+      </c>
+      <c r="E2">
+        <v>513.3148602053592</v>
+      </c>
+      <c r="F2">
+        <v>968.0746366474277</v>
+      </c>
+      <c r="G2">
+        <v>1304.997289135113</v>
+      </c>
+      <c r="H2">
+        <v>2167.733394512821</v>
+      </c>
+      <c r="I2">
+        <v>2663.459531840598</v>
+      </c>
+      <c r="J2">
+        <v>3216.664689899796</v>
+      </c>
+      <c r="K2">
+        <v>3852.991819362137</v>
+      </c>
+      <c r="L2">
+        <v>4360.259993747495</v>
+      </c>
+      <c r="M2">
+        <v>4982.866308383434</v>
+      </c>
+      <c r="N2">
+        <v>5299.448914154338</v>
+      </c>
+      <c r="O2">
+        <v>5652.226633709518</v>
+      </c>
+      <c r="P2">
+        <v>6361.988401783624</v>
+      </c>
+      <c r="Q2">
+        <v>7087.045798230499</v>
+      </c>
+      <c r="R2">
+        <v>7828.030308789715</v>
+      </c>
+      <c r="S2">
+        <v>9646.082017005981</v>
+      </c>
+      <c r="T2">
+        <v>11456.95219820017</v>
+      </c>
+      <c r="U2">
+        <v>13270.19757077964</v>
+      </c>
+      <c r="V2">
+        <v>15097.47361026972</v>
+      </c>
+      <c r="W2">
+        <v>16940.11775047886</v>
+      </c>
+      <c r="X2">
+        <v>18644.07541577817</v>
+      </c>
+      <c r="Y2">
+        <v>20370.03446868491</v>
+      </c>
+      <c r="Z2">
+        <v>22112.43523124112</v>
+      </c>
+      <c r="AA2">
+        <v>23874.50779824566</v>
+      </c>
+      <c r="AB2">
+        <v>25691.69411225342</v>
+      </c>
+      <c r="AC2">
+        <v>26372.96520638683</v>
+      </c>
+      <c r="AD2">
+        <v>27154.32999654337</v>
+      </c>
+      <c r="AE2">
+        <v>28032.64131027573</v>
+      </c>
+      <c r="AF2">
+        <v>28902.64509982144</v>
+      </c>
+      <c r="AG2">
+        <v>29736.5567535722</v>
+      </c>
+      <c r="AH2">
+        <v>30397.8171462573</v>
+      </c>
+      <c r="AI2">
+        <v>31036.38992082948</v>
+      </c>
+      <c r="AJ2">
+        <v>31645.78026127249</v>
+      </c>
+      <c r="AK2">
+        <v>32235.66541930072</v>
+      </c>
+      <c r="AL2">
+        <v>32905.81435136645</v>
+      </c>
+      <c r="AM2">
+        <v>33756.13246377858</v>
+      </c>
+      <c r="AN2">
+        <v>34804.89106241544</v>
+      </c>
+      <c r="AO2">
+        <v>36135.64818744631</v>
+      </c>
+      <c r="AP2">
+        <v>37828.09965679799</v>
+      </c>
+      <c r="AQ2">
+        <v>39706.72870926181</v>
+      </c>
+      <c r="AR2">
+        <v>41604.67863895329</v>
+      </c>
+      <c r="AS2">
+        <v>43501.30235176446</v>
+      </c>
+      <c r="AT2">
+        <v>45377.08516462273</v>
+      </c>
+      <c r="AU2">
+        <v>47215.55765203369</v>
+      </c>
+      <c r="AV2">
+        <v>49041.21137397284</v>
+      </c>
+      <c r="AW2">
+        <v>50841.66426931558</v>
+      </c>
+      <c r="AX2">
+        <v>52737.17608988492</v>
+      </c>
+      <c r="AY2">
+        <v>54393.5427132223</v>
+      </c>
+      <c r="AZ2">
+        <v>55722.1949165048</v>
+      </c>
+      <c r="BA2">
+        <v>56912.03537548181</v>
+      </c>
+      <c r="BB2">
+        <v>58095.4207421998</v>
+      </c>
+      <c r="BC2">
+        <v>59259.75041028376</v>
+      </c>
+      <c r="BD2">
+        <v>60361.77120686792</v>
+      </c>
+      <c r="BE2">
+        <v>61389.670450983</v>
+      </c>
+      <c r="BF2">
+        <v>62374.90966611892</v>
+      </c>
+      <c r="BG2">
+        <v>63334.89881664082</v>
+      </c>
+      <c r="BH2">
+        <v>64338.955806485</v>
+      </c>
+      <c r="BI2">
+        <v>65456.70070031786</v>
+      </c>
+      <c r="BJ2">
+        <v>66756.95399068462</v>
+      </c>
+      <c r="BK2">
+        <v>68286.68075834024</v>
+      </c>
+      <c r="BL2">
+        <v>70053.62928832155</v>
+      </c>
+      <c r="BM2">
+        <v>72051.85581242848</v>
+      </c>
+      <c r="BN2">
+        <v>74188.42325865221</v>
+      </c>
+      <c r="BO2">
+        <v>76366.4200985447</v>
+      </c>
+      <c r="BP2">
+        <v>78540.32266963087</v>
+      </c>
+      <c r="BQ2">
+        <v>80683.38301580661</v>
+      </c>
+      <c r="BR2">
+        <v>82802.98975369403</v>
+      </c>
+      <c r="BS2">
+        <v>84899.56390841147</v>
+      </c>
+      <c r="BT2">
+        <v>86964.41740424813</v>
+      </c>
+      <c r="BU2">
+        <v>88952.70037948387</v>
+      </c>
+      <c r="BV2">
+        <v>90763.50598148248</v>
+      </c>
+      <c r="BW2">
+        <v>92384.19602128782</v>
+      </c>
+      <c r="BX2">
+        <v>93891.3081921884</v>
+      </c>
+      <c r="BY2">
+        <v>95355.10609677085</v>
+      </c>
+      <c r="BZ2">
+        <v>96786.06452850049</v>
+      </c>
+      <c r="CA2">
+        <v>98158.19542255561</v>
+      </c>
+      <c r="CB2">
+        <v>99486.49624029458</v>
+      </c>
+      <c r="CC2">
+        <v>100796.1291360077</v>
+      </c>
+      <c r="CD2">
+        <v>102128.5503169549</v>
+      </c>
+      <c r="CE2">
+        <v>103539.5438078684</v>
+      </c>
+      <c r="CF2">
+        <v>105075.1015577756</v>
+      </c>
+      <c r="CG2">
+        <v>106798.255270122</v>
+      </c>
+      <c r="CH2">
+        <v>108734.1185435594</v>
+      </c>
+      <c r="CI2">
+        <v>110876.5971316916</v>
+      </c>
+      <c r="CJ2">
+        <v>113186.8472544625</v>
+      </c>
+      <c r="CK2">
+        <v>115579.8573583163</v>
+      </c>
+      <c r="CL2">
+        <v>118009.9112014888</v>
+      </c>
+      <c r="CM2">
+        <v>120435.9870246778</v>
+      </c>
+      <c r="CN2">
+        <v>122839.7834846383</v>
+      </c>
+      <c r="CO2">
+        <v>125214.0342079773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>14.99156499716545</v>
+      </c>
+      <c r="E3">
+        <v>32.40922694421752</v>
+      </c>
+      <c r="F3">
+        <v>61.78486372379167</v>
+      </c>
+      <c r="G3">
+        <v>83.24695006815729</v>
+      </c>
+      <c r="H3">
+        <v>140.1147025295666</v>
+      </c>
+      <c r="I3">
+        <v>172.3221378477772</v>
+      </c>
+      <c r="J3">
+        <v>208.2878018905198</v>
+      </c>
+      <c r="K3">
+        <v>249.6969970930895</v>
+      </c>
+      <c r="L3">
+        <v>282.4789948913666</v>
+      </c>
+      <c r="M3">
+        <v>322.9411922623121</v>
+      </c>
+      <c r="N3">
+        <v>342.7148462442876</v>
+      </c>
+      <c r="O3">
+        <v>365.0508735069147</v>
+      </c>
+      <c r="P3">
+        <v>411.2883239139696</v>
+      </c>
+      <c r="Q3">
+        <v>458.5256003920647</v>
+      </c>
+      <c r="R3">
+        <v>506.8056085649625</v>
+      </c>
+      <c r="S3">
+        <v>627.3595544362281</v>
+      </c>
+      <c r="T3">
+        <v>747.3825307908028</v>
+      </c>
+      <c r="U3">
+        <v>867.5216838792225</v>
+      </c>
+      <c r="V3">
+        <v>988.5663416833031</v>
+      </c>
+      <c r="W3">
+        <v>1110.60706925786</v>
+      </c>
+      <c r="X3">
+        <v>1223.302366945873</v>
+      </c>
+      <c r="Y3">
+        <v>1337.444489782554</v>
+      </c>
+      <c r="Z3">
+        <v>1452.65696153237</v>
+      </c>
+      <c r="AA3">
+        <v>1569.158534847536</v>
+      </c>
+      <c r="AB3">
+        <v>1689.349425025817</v>
+      </c>
+      <c r="AC3">
+        <v>1733.280305310856</v>
+      </c>
+      <c r="AD3">
+        <v>1783.94550494248</v>
+      </c>
+      <c r="AE3">
+        <v>1841.131724142085</v>
+      </c>
+      <c r="AF3">
+        <v>1897.710518600906</v>
+      </c>
+      <c r="AG3">
+        <v>1951.799936466759</v>
+      </c>
+      <c r="AH3">
+        <v>1994.249796793903</v>
+      </c>
+      <c r="AI3">
+        <v>2035.115705026188</v>
+      </c>
+      <c r="AJ3">
+        <v>2073.95707142902</v>
+      </c>
+      <c r="AK3">
+        <v>2111.428373561995</v>
+      </c>
+      <c r="AL3">
+        <v>2154.285360387179</v>
+      </c>
+      <c r="AM3">
+        <v>2209.29278938724</v>
+      </c>
+      <c r="AN3">
+        <v>2277.687523227018</v>
+      </c>
+      <c r="AO3">
+        <v>2365.127583326263</v>
+      </c>
+      <c r="AP3">
+        <v>2477.009682849101</v>
+      </c>
+      <c r="AQ3">
+        <v>2601.448651216512</v>
+      </c>
+      <c r="AR3">
+        <v>2727.144405222416</v>
+      </c>
+      <c r="AS3">
+        <v>2852.699595543799</v>
+      </c>
+      <c r="AT3">
+        <v>2976.793778663461</v>
+      </c>
+      <c r="AU3">
+        <v>3098.312885796371</v>
+      </c>
+      <c r="AV3">
+        <v>3218.909038964522</v>
+      </c>
+      <c r="AW3">
+        <v>3337.746178244633</v>
+      </c>
+      <c r="AX3">
+        <v>3462.861544552608</v>
+      </c>
+      <c r="AY3">
+        <v>3571.734825147306</v>
+      </c>
+      <c r="AZ3">
+        <v>3658.369205863673</v>
+      </c>
+      <c r="BA3">
+        <v>3735.556843521865</v>
+      </c>
+      <c r="BB3">
+        <v>3812.26956260468</v>
+      </c>
+      <c r="BC3">
+        <v>3887.639568735811</v>
+      </c>
+      <c r="BD3">
+        <v>3958.737208006545</v>
+      </c>
+      <c r="BE3">
+        <v>4024.761763963384</v>
+      </c>
+      <c r="BF3">
+        <v>4087.842671047722</v>
+      </c>
+      <c r="BG3">
+        <v>4149.167632472984</v>
+      </c>
+      <c r="BH3">
+        <v>4213.415871587377</v>
+      </c>
+      <c r="BI3">
+        <v>4285.301110873239</v>
+      </c>
+      <c r="BJ3">
+        <v>4369.483095479324</v>
+      </c>
+      <c r="BK3">
+        <v>4469.141645485784</v>
+      </c>
+      <c r="BL3">
+        <v>4584.808230944298</v>
+      </c>
+      <c r="BM3">
+        <v>4716.069776058834</v>
+      </c>
+      <c r="BN3">
+        <v>4856.632844455063</v>
+      </c>
+      <c r="BO3">
+        <v>4999.935017169482</v>
+      </c>
+      <c r="BP3">
+        <v>5142.893822719047</v>
+      </c>
+      <c r="BQ3">
+        <v>5283.700743731695</v>
+      </c>
+      <c r="BR3">
+        <v>5422.849330541829</v>
+      </c>
+      <c r="BS3">
+        <v>5560.368628552957</v>
+      </c>
+      <c r="BT3">
+        <v>5695.67092179009</v>
+      </c>
+      <c r="BU3">
+        <v>5825.719787233877</v>
+      </c>
+      <c r="BV3">
+        <v>5943.685641304528</v>
+      </c>
+      <c r="BW3">
+        <v>6048.706140261246</v>
+      </c>
+      <c r="BX3">
+        <v>6145.964491096511</v>
+      </c>
+      <c r="BY3">
+        <v>6240.218851265574</v>
+      </c>
+      <c r="BZ3">
+        <v>6332.178550206395</v>
+      </c>
+      <c r="CA3">
+        <v>6420.086719418152</v>
+      </c>
+      <c r="CB3">
+        <v>6504.951375742939</v>
+      </c>
+      <c r="CC3">
+        <v>6588.476147291983</v>
+      </c>
+      <c r="CD3">
+        <v>6673.467970136896</v>
+      </c>
+      <c r="CE3">
+        <v>6763.704017780184</v>
+      </c>
+      <c r="CF3">
+        <v>6862.301794316921</v>
+      </c>
+      <c r="CG3">
+        <v>6973.520933270468</v>
+      </c>
+      <c r="CH3">
+        <v>7099.061704212068</v>
+      </c>
+      <c r="CI3">
+        <v>7238.511091435208</v>
+      </c>
+      <c r="CJ3">
+        <v>7389.238448591349</v>
+      </c>
+      <c r="CK3">
+        <v>7545.493663603125</v>
+      </c>
+      <c r="CL3">
+        <v>7704.169476706395</v>
+      </c>
+      <c r="CM3">
+        <v>7862.488029978065</v>
+      </c>
+      <c r="CN3">
+        <v>8019.210103949245</v>
+      </c>
+      <c r="CO3">
+        <v>8173.843813843535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>24067653.7278982</v>
+      </c>
+      <c r="E4">
+        <v>48410643.84999873</v>
+      </c>
+      <c r="F4">
+        <v>75116393.12306188</v>
+      </c>
+      <c r="G4">
+        <v>101905345.4108406</v>
+      </c>
+      <c r="H4">
+        <v>126299009.002836</v>
+      </c>
+      <c r="I4">
+        <v>150226154.7217413</v>
+      </c>
+      <c r="J4">
+        <v>176615629.7460426</v>
+      </c>
+      <c r="K4">
+        <v>206478625.4782848</v>
+      </c>
+      <c r="L4">
+        <v>236139938.6193467</v>
+      </c>
+      <c r="M4">
+        <v>267693892.7274759</v>
+      </c>
+      <c r="N4">
+        <v>301845027.660969</v>
+      </c>
+      <c r="O4">
+        <v>333533040.269295</v>
+      </c>
+      <c r="P4">
+        <v>368732021.8773739</v>
+      </c>
+      <c r="Q4">
+        <v>405143102.9155145</v>
+      </c>
+      <c r="R4">
+        <v>442755990.8131856</v>
+      </c>
+      <c r="S4">
+        <v>485717744.466951</v>
+      </c>
+      <c r="T4">
+        <v>529994875.249038</v>
+      </c>
+      <c r="U4">
+        <v>575592409.3360194</v>
+      </c>
+      <c r="V4">
+        <v>622512542.8478154</v>
+      </c>
+      <c r="W4">
+        <v>670755401.7689488</v>
+      </c>
+      <c r="X4">
+        <v>719885437.9109036</v>
+      </c>
+      <c r="Y4">
+        <v>770254976.8750103</v>
+      </c>
+      <c r="Z4">
+        <v>821859614.7153242</v>
+      </c>
+      <c r="AA4">
+        <v>874699080.6541938</v>
+      </c>
+      <c r="AB4">
+        <v>928779584.091234</v>
+      </c>
+      <c r="AC4">
+        <v>979422289.0293148</v>
+      </c>
+      <c r="AD4">
+        <v>1031320706.498562</v>
+      </c>
+      <c r="AE4">
+        <v>1084480406.983674</v>
+      </c>
+      <c r="AF4">
+        <v>1138898123.296907</v>
+      </c>
+      <c r="AG4">
+        <v>1194579196.353724</v>
+      </c>
+      <c r="AH4">
+        <v>1250734318.154443</v>
+      </c>
+      <c r="AI4">
+        <v>1308215951.740121</v>
+      </c>
+      <c r="AJ4">
+        <v>1367056237.991127</v>
+      </c>
+      <c r="AK4">
+        <v>1427299521.212872</v>
+      </c>
+      <c r="AL4">
+        <v>1489006442.073172</v>
+      </c>
+      <c r="AM4">
+        <v>1552203712.055605</v>
+      </c>
+      <c r="AN4">
+        <v>1616917296.794143</v>
+      </c>
+      <c r="AO4">
+        <v>1683206966.558583</v>
+      </c>
+      <c r="AP4">
+        <v>1751121340.286139</v>
+      </c>
+      <c r="AQ4">
+        <v>1820545002.252003</v>
+      </c>
+      <c r="AR4">
+        <v>1891343154.393607</v>
+      </c>
+      <c r="AS4">
+        <v>1963472800.600109</v>
+      </c>
+      <c r="AT4">
+        <v>2036883942.216683</v>
+      </c>
+      <c r="AU4">
+        <v>2111523006.03404</v>
+      </c>
+      <c r="AV4">
+        <v>2187808496.939798</v>
+      </c>
+      <c r="AW4">
+        <v>2265441301.441171</v>
+      </c>
+      <c r="AX4">
+        <v>2344387763.115314</v>
+      </c>
+      <c r="AY4">
+        <v>2424329068.802472</v>
+      </c>
+      <c r="AZ4">
+        <v>2505178584.889037</v>
+      </c>
+      <c r="BA4">
+        <v>2587041958.37547</v>
+      </c>
+      <c r="BB4">
+        <v>2670019987.282684</v>
+      </c>
+      <c r="BC4">
+        <v>2754208354.94087</v>
+      </c>
+      <c r="BD4">
+        <v>2839611480.161658</v>
+      </c>
+      <c r="BE4">
+        <v>2926253026.248374</v>
+      </c>
+      <c r="BF4">
+        <v>3014193884.965982</v>
+      </c>
+      <c r="BG4">
+        <v>3103485918.330819</v>
+      </c>
+      <c r="BH4">
+        <v>3194279246.242972</v>
+      </c>
+      <c r="BI4">
+        <v>3286636725.084826</v>
+      </c>
+      <c r="BJ4">
+        <v>3380613661.341897</v>
+      </c>
+      <c r="BK4">
+        <v>3476253974.865491</v>
+      </c>
+      <c r="BL4">
+        <v>3573567136.947353</v>
+      </c>
+      <c r="BM4">
+        <v>3672611605.590523</v>
+      </c>
+      <c r="BN4">
+        <v>3773331988.113343</v>
+      </c>
+      <c r="BO4">
+        <v>3875664610.922625</v>
+      </c>
+      <c r="BP4">
+        <v>3979572014.637457</v>
+      </c>
+      <c r="BQ4">
+        <v>4085084662.410876</v>
+      </c>
+      <c r="BR4">
+        <v>4192227765.719946</v>
+      </c>
+      <c r="BS4">
+        <v>4300980497.124554</v>
+      </c>
+      <c r="BT4">
+        <v>4411312830.367495</v>
+      </c>
+      <c r="BU4">
+        <v>4523170238.725402</v>
+      </c>
+      <c r="BV4">
+        <v>4636498825.218679</v>
+      </c>
+      <c r="BW4">
+        <v>4751308410.062385</v>
+      </c>
+      <c r="BX4">
+        <v>4867636781.410834</v>
+      </c>
+      <c r="BY4">
+        <v>4985527787.892986</v>
+      </c>
+      <c r="BZ4">
+        <v>5104994169.658165</v>
+      </c>
+      <c r="CA4">
+        <v>5226065729.127593</v>
+      </c>
+      <c r="CB4">
+        <v>5348799700.638297</v>
+      </c>
+      <c r="CC4">
+        <v>5473223989.727657</v>
+      </c>
+      <c r="CD4">
+        <v>5599377655.492837</v>
+      </c>
+      <c r="CE4">
+        <v>5727305420.233619</v>
+      </c>
+      <c r="CF4">
+        <v>5857079886.154106</v>
+      </c>
+      <c r="CG4">
+        <v>5988790663.315065</v>
+      </c>
+      <c r="CH4">
+        <v>6122462904.037632</v>
+      </c>
+      <c r="CI4">
+        <v>6258103963.394125</v>
+      </c>
+      <c r="CJ4">
+        <v>6395699535.148347</v>
+      </c>
+      <c r="CK4">
+        <v>6535220012.645167</v>
+      </c>
+      <c r="CL4">
+        <v>6676700159.152136</v>
+      </c>
+      <c r="CM4">
+        <v>6820113896.437315</v>
+      </c>
+      <c r="CN4">
+        <v>6965445610.583743</v>
+      </c>
+      <c r="CO4">
+        <v>7112683098.61626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1540832.618645904</v>
+      </c>
+      <c r="E5">
+        <v>2446459.465535653</v>
+      </c>
+      <c r="F5">
+        <v>2900633.118084563</v>
+      </c>
+      <c r="G5">
+        <v>3180171.166829534</v>
+      </c>
+      <c r="H5">
+        <v>3442524.822442985</v>
+      </c>
+      <c r="I5">
+        <v>3629560.056615658</v>
+      </c>
+      <c r="J5">
+        <v>3783992.256301864</v>
+      </c>
+      <c r="K5">
+        <v>3984491.825130677</v>
+      </c>
+      <c r="L5">
+        <v>4346945.221302202</v>
+      </c>
+      <c r="M5">
+        <v>4668565.566115132</v>
+      </c>
+      <c r="N5">
+        <v>5076303.480233028</v>
+      </c>
+      <c r="O5">
+        <v>5587914.89064678</v>
+      </c>
+      <c r="P5">
+        <v>8835191.085061587</v>
+      </c>
+      <c r="Q5">
+        <v>12098239.37245291</v>
+      </c>
+      <c r="R5">
+        <v>15380731.22647955</v>
+      </c>
+      <c r="S5">
+        <v>25699491.26496891</v>
+      </c>
+      <c r="T5">
+        <v>36045715.75666575</v>
+      </c>
+      <c r="U5">
+        <v>46423398.45916088</v>
+      </c>
+      <c r="V5">
+        <v>56836270.499268</v>
+      </c>
+      <c r="W5">
+        <v>67287649.61420576</v>
+      </c>
+      <c r="X5">
+        <v>77318660.94826832</v>
+      </c>
+      <c r="Y5">
+        <v>87393526.72323851</v>
+      </c>
+      <c r="Z5">
+        <v>97514746.41715771</v>
+      </c>
+      <c r="AA5">
+        <v>107685535.0512345</v>
+      </c>
+      <c r="AB5">
+        <v>117910952.5342207</v>
+      </c>
+      <c r="AC5">
+        <v>120007724.5275417</v>
+      </c>
+      <c r="AD5">
+        <v>122181500.626315</v>
+      </c>
+      <c r="AE5">
+        <v>124453757.5581945</v>
+      </c>
+      <c r="AF5">
+        <v>126855637.3578823</v>
+      </c>
+      <c r="AG5">
+        <v>129429478.6360149</v>
+      </c>
+      <c r="AH5">
+        <v>130679815.460827</v>
+      </c>
+      <c r="AI5">
+        <v>132221180.7957116</v>
+      </c>
+      <c r="AJ5">
+        <v>134127078.5469503</v>
+      </c>
+      <c r="AK5">
+        <v>136475534.2275759</v>
+      </c>
+      <c r="AL5">
+        <v>139343680.3158577</v>
+      </c>
+      <c r="AM5">
+        <v>142801236.6333173</v>
+      </c>
+      <c r="AN5">
+        <v>146903305.3806001</v>
+      </c>
+      <c r="AO5">
+        <v>151683038.2274398</v>
+      </c>
+      <c r="AP5">
+        <v>157144855.0794366</v>
+      </c>
+      <c r="AQ5">
+        <v>163259108.8033133</v>
+      </c>
+      <c r="AR5">
+        <v>169959251.6889826</v>
+      </c>
+      <c r="AS5">
+        <v>177142380.5246485</v>
+      </c>
+      <c r="AT5">
+        <v>184673774.263663</v>
+      </c>
+      <c r="AU5">
+        <v>192395386.3210535</v>
+      </c>
+      <c r="AV5">
+        <v>201182580.9691409</v>
+      </c>
+      <c r="AW5">
+        <v>210118043.3229724</v>
+      </c>
+      <c r="AX5">
+        <v>218753248.3301207</v>
+      </c>
+      <c r="AY5">
+        <v>226962100.1018687</v>
+      </c>
+      <c r="AZ5">
+        <v>234653992.638981</v>
+      </c>
+      <c r="BA5">
+        <v>241779070.66393</v>
+      </c>
+      <c r="BB5">
+        <v>248178210.1295266</v>
+      </c>
+      <c r="BC5">
+        <v>254037226.9172253</v>
+      </c>
+      <c r="BD5">
+        <v>259427137.3145033</v>
+      </c>
+      <c r="BE5">
+        <v>264449069.0482923</v>
+      </c>
+      <c r="BF5">
+        <v>269224901.7965671</v>
+      </c>
+      <c r="BG5">
+        <v>273736508.3144204</v>
+      </c>
+      <c r="BH5">
+        <v>278263905.1197827</v>
+      </c>
+      <c r="BI5">
+        <v>282926067.6264786</v>
+      </c>
+      <c r="BJ5">
+        <v>287823609.0494729</v>
+      </c>
+      <c r="BK5">
+        <v>293034844.6799679</v>
+      </c>
+      <c r="BL5">
+        <v>298501966.5950856</v>
+      </c>
+      <c r="BM5">
+        <v>304369567.302149</v>
+      </c>
+      <c r="BN5">
+        <v>310648137.2889194</v>
+      </c>
+      <c r="BO5">
+        <v>317328444.6282418</v>
+      </c>
+      <c r="BP5">
+        <v>324383463.8119491</v>
+      </c>
+      <c r="BQ5">
+        <v>331692057.2945307</v>
+      </c>
+      <c r="BR5">
+        <v>339277286.5355973</v>
+      </c>
+      <c r="BS5">
+        <v>347073774.5514776</v>
+      </c>
+      <c r="BT5">
+        <v>355009647.0967457</v>
+      </c>
+      <c r="BU5">
+        <v>363010191.1129319</v>
+      </c>
+      <c r="BV5">
+        <v>370925094.5085239</v>
+      </c>
+      <c r="BW5">
+        <v>378762482.9955006</v>
+      </c>
+      <c r="BX5">
+        <v>386462991.0068543</v>
+      </c>
+      <c r="BY5">
+        <v>393980196.853199</v>
+      </c>
+      <c r="BZ5">
+        <v>401283738.5241156</v>
+      </c>
+      <c r="CA5">
+        <v>408280876.2732419</v>
+      </c>
+      <c r="CB5">
+        <v>415058511.4081076</v>
+      </c>
+      <c r="CC5">
+        <v>421640677.5786378</v>
+      </c>
+      <c r="CD5">
+        <v>428066385.8594212</v>
+      </c>
+      <c r="CE5">
+        <v>434385750.5104311</v>
+      </c>
+      <c r="CF5">
+        <v>440564656.9219339</v>
+      </c>
+      <c r="CG5">
+        <v>446752319.5262827</v>
+      </c>
+      <c r="CH5">
+        <v>453004642.7786242</v>
+      </c>
+      <c r="CI5">
+        <v>459371317.4073758</v>
+      </c>
+      <c r="CJ5">
+        <v>465893010.7598801</v>
+      </c>
+      <c r="CK5">
+        <v>472475433.8540905</v>
+      </c>
+      <c r="CL5">
+        <v>479260476.2553428</v>
+      </c>
+      <c r="CM5">
+        <v>486253901.0831345</v>
+      </c>
+      <c r="CN5">
+        <v>493449978.9978794</v>
+      </c>
+      <c r="CO5">
+        <v>500832692.1735212</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Price/Results_world_base_price_Max.xlsx
+++ b/Results/Baseline/Price/Results_world_base_price_Max.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>238.2077440031373</v>
+        <v>793.7358230959362</v>
       </c>
       <c r="E2">
-        <v>275.1071162022218</v>
+        <v>1034.54924234082</v>
       </c>
       <c r="F2">
-        <v>454.7597764420685</v>
+        <v>1034.013568282951</v>
       </c>
       <c r="G2">
-        <v>336.9226524876848</v>
+        <v>982.5847783934889</v>
       </c>
       <c r="H2">
-        <v>862.7361053777086</v>
+        <v>1317.86044651881</v>
       </c>
       <c r="I2">
-        <v>495.7261373277765</v>
+        <v>950.7448820171012</v>
       </c>
       <c r="J2">
-        <v>553.205158059198</v>
+        <v>1720.281009150143</v>
       </c>
       <c r="K2">
-        <v>636.3271294623415</v>
+        <v>1710.189886784693</v>
       </c>
       <c r="L2">
-        <v>507.2681743853582</v>
+        <v>1521.725731772726</v>
       </c>
       <c r="M2">
-        <v>622.6063146359381</v>
+        <v>1402.610028771209</v>
       </c>
       <c r="N2">
-        <v>316.5826057709043</v>
+        <v>3000.445716561919</v>
       </c>
       <c r="O2">
-        <v>352.7777195551799</v>
+        <v>1821.335397275888</v>
       </c>
       <c r="P2">
-        <v>709.761768074106</v>
+        <v>3650.559349979079</v>
       </c>
       <c r="Q2">
-        <v>725.0573964468746</v>
+        <v>3939.797116401323</v>
       </c>
       <c r="R2">
-        <v>740.9845105592168</v>
+        <v>4233.058308629534</v>
       </c>
       <c r="S2">
-        <v>1818.051708216266</v>
+        <v>9255.396261560458</v>
       </c>
       <c r="T2">
-        <v>1810.870181194189</v>
+        <v>9909.883742421011</v>
       </c>
       <c r="U2">
-        <v>1813.245372579475</v>
+        <v>10571.47830541077</v>
       </c>
       <c r="V2">
-        <v>1827.276039490078</v>
+        <v>11245.54192449718</v>
       </c>
       <c r="W2">
-        <v>1842.644140209144</v>
+        <v>11929.52889679331</v>
       </c>
       <c r="X2">
-        <v>1703.957665299301</v>
+        <v>11987.71817323528</v>
       </c>
       <c r="Y2">
-        <v>1725.959052906746</v>
+        <v>12645.71049397045</v>
       </c>
       <c r="Z2">
-        <v>1742.400762556211</v>
+        <v>13309.14607738691</v>
       </c>
       <c r="AA2">
-        <v>1762.072567004537</v>
+        <v>13986.47400991373</v>
       </c>
       <c r="AB2">
-        <v>1817.186314007756</v>
+        <v>14682.98209400342</v>
       </c>
       <c r="AC2">
-        <v>681.2710941334158</v>
+        <v>6865.245002638434</v>
       </c>
       <c r="AD2">
-        <v>781.3647901565421</v>
+        <v>7056.236322026815</v>
       </c>
       <c r="AE2">
-        <v>878.3113137323547</v>
+        <v>7301.324453340639</v>
       </c>
       <c r="AF2">
-        <v>870.0037895457106</v>
+        <v>7538.584748280185</v>
       </c>
       <c r="AG2">
-        <v>833.9116537507587</v>
+        <v>7816.062437809049</v>
       </c>
       <c r="AH2">
-        <v>661.2603926851078</v>
+        <v>5012.392268525515</v>
       </c>
       <c r="AI2">
-        <v>638.5727745721781</v>
+        <v>5059.382297952099</v>
       </c>
       <c r="AJ2">
-        <v>609.3903404430065</v>
+        <v>5304.622777780031</v>
       </c>
       <c r="AK2">
-        <v>589.8851580282305</v>
+        <v>5743.337065253412</v>
       </c>
       <c r="AL2">
-        <v>670.1489320657373</v>
+        <v>6170.537200325372</v>
       </c>
       <c r="AM2">
-        <v>850.3181124121288</v>
+        <v>8175.157989302141</v>
       </c>
       <c r="AN2">
-        <v>1048.758598636857</v>
+        <v>9209.384918846297</v>
       </c>
       <c r="AO2">
-        <v>1330.757125030873</v>
+        <v>10643.08862043478</v>
       </c>
       <c r="AP2">
-        <v>1692.451469351673</v>
+        <v>12493.21477621817</v>
       </c>
       <c r="AQ2">
-        <v>1878.629052463815</v>
+        <v>13819.12823789985</v>
       </c>
       <c r="AR2">
-        <v>1897.949929691484</v>
+        <v>17010.59146949526</v>
       </c>
       <c r="AS2">
-        <v>1896.623712811167</v>
+        <v>17743.60441906028</v>
       </c>
       <c r="AT2">
-        <v>1875.782812858267</v>
+        <v>18359.16936511283</v>
       </c>
       <c r="AU2">
-        <v>1838.472487410962</v>
+        <v>18862.36525558366</v>
       </c>
       <c r="AV2">
-        <v>1825.653721939149</v>
+        <v>19373.10284488846</v>
       </c>
       <c r="AW2">
-        <v>1800.452895342741</v>
+        <v>20292.04317529356</v>
       </c>
       <c r="AX2">
-        <v>1895.511820569336</v>
+        <v>20088.18648548009</v>
       </c>
       <c r="AY2">
-        <v>1656.366623337384</v>
+        <v>18784.63965057112</v>
       </c>
       <c r="AZ2">
-        <v>1328.652203282499</v>
+        <v>16667.5756090395</v>
       </c>
       <c r="BA2">
-        <v>1189.84045897701</v>
+        <v>15617.15999618154</v>
       </c>
       <c r="BB2">
-        <v>1183.385366717992</v>
+        <v>14964.31423586215</v>
       </c>
       <c r="BC2">
-        <v>1164.329668083958</v>
+        <v>14863.87454271163</v>
       </c>
       <c r="BD2">
-        <v>1102.020796584163</v>
+        <v>14389.73323319248</v>
       </c>
       <c r="BE2">
-        <v>1027.899244115082</v>
+        <v>13664.71302680885</v>
       </c>
       <c r="BF2">
-        <v>985.2392151359196</v>
+        <v>13427.28960292675</v>
       </c>
       <c r="BG2">
-        <v>959.9891505218966</v>
+        <v>13296.72448971812</v>
       </c>
       <c r="BH2">
-        <v>1004.056989844182</v>
+        <v>13927.21447835659</v>
       </c>
       <c r="BI2">
-        <v>1117.744893832856</v>
+        <v>14895.5336561994</v>
       </c>
       <c r="BJ2">
-        <v>1300.25329036676</v>
+        <v>16224.84539936775</v>
       </c>
       <c r="BK2">
-        <v>1529.726767655626</v>
+        <v>17678.0669196177</v>
       </c>
       <c r="BL2">
-        <v>1766.948529981313</v>
+        <v>18966.68746591194</v>
       </c>
       <c r="BM2">
-        <v>1998.226524106931</v>
+        <v>20691.80870445102</v>
       </c>
       <c r="BN2">
-        <v>2136.56744622373</v>
+        <v>22468.89144791253</v>
       </c>
       <c r="BO2">
-        <v>2177.996839892478</v>
+        <v>24138.897860363</v>
       </c>
       <c r="BP2">
-        <v>2173.90257108617</v>
+        <v>25275.31624186686</v>
       </c>
       <c r="BQ2">
-        <v>2143.060346175737</v>
+        <v>25826.5238129023</v>
       </c>
       <c r="BR2">
-        <v>2119.606737887415</v>
+        <v>26406.53046049552</v>
       </c>
       <c r="BS2">
-        <v>2096.57415471744</v>
+        <v>26878.06465398613</v>
       </c>
       <c r="BT2">
-        <v>2064.853495836663</v>
+        <v>27046.94751636852</v>
       </c>
       <c r="BU2">
-        <v>1988.282975235731</v>
+        <v>26581.50477197447</v>
       </c>
       <c r="BV2">
-        <v>1810.805601998609</v>
+        <v>25322.20035225256</v>
       </c>
       <c r="BW2">
-        <v>1620.690039805334</v>
+        <v>24077.62826965037</v>
       </c>
       <c r="BX2">
-        <v>1507.112170900586</v>
+        <v>23200.44418152134</v>
       </c>
       <c r="BY2">
-        <v>1463.797904582453</v>
+        <v>22736.51253981347</v>
       </c>
       <c r="BZ2">
-        <v>1430.958431729634</v>
+        <v>22437.53165687131</v>
       </c>
       <c r="CA2">
-        <v>1372.130894055118</v>
+        <v>21955.50300934877</v>
       </c>
       <c r="CB2">
-        <v>1328.300817738968</v>
+        <v>21648.38957450827</v>
       </c>
       <c r="CC2">
-        <v>1309.63289571313</v>
+        <v>21596.02921341092</v>
       </c>
       <c r="CD2">
-        <v>1332.421180947235</v>
+        <v>21914.74981199621</v>
       </c>
       <c r="CE2">
-        <v>1410.993490913404</v>
+        <v>22650.99564027882</v>
       </c>
       <c r="CF2">
-        <v>1535.557749907275</v>
+        <v>23549.66893585815</v>
       </c>
       <c r="CG2">
-        <v>1723.153712346397</v>
+        <v>24862.96236523946</v>
       </c>
       <c r="CH2">
-        <v>1935.863273437401</v>
+        <v>26295.44322776133</v>
       </c>
       <c r="CI2">
-        <v>2142.478588132189</v>
+        <v>27801.83188932326</v>
       </c>
       <c r="CJ2">
-        <v>2310.250122770859</v>
+        <v>29400.97564881215</v>
       </c>
       <c r="CK2">
-        <v>2393.010103853811</v>
+        <v>30678.56052440771</v>
       </c>
       <c r="CL2">
-        <v>2430.053843172518</v>
+        <v>32017.81312886522</v>
       </c>
       <c r="CM2">
-        <v>2426.075823189042</v>
+        <v>32993.93443174977</v>
       </c>
       <c r="CN2">
-        <v>2403.796459960463</v>
+        <v>33640.21784090926</v>
       </c>
       <c r="CO2">
-        <v>2374.250723338992</v>
+        <v>34084.14167180549</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>14.99156499716545</v>
+        <v>59.47279146422881</v>
       </c>
       <c r="E3">
-        <v>17.41766194705206</v>
+        <v>77.75072616819689</v>
       </c>
       <c r="F3">
-        <v>29.37563677957414</v>
+        <v>77.61077245447134</v>
       </c>
       <c r="G3">
-        <v>21.46208634436563</v>
+        <v>73.69591696962941</v>
       </c>
       <c r="H3">
-        <v>56.86775246140935</v>
+        <v>99.29393772238201</v>
       </c>
       <c r="I3">
-        <v>32.20743531821053</v>
+        <v>71.34504451239255</v>
       </c>
       <c r="J3">
-        <v>35.96566404274265</v>
+        <v>129.8155675219713</v>
       </c>
       <c r="K3">
-        <v>41.40919520256972</v>
+        <v>128.9199301042069</v>
       </c>
       <c r="L3">
-        <v>32.78199779827708</v>
+        <v>114.6150962985455</v>
       </c>
       <c r="M3">
-        <v>40.46219737094547</v>
+        <v>105.4851508478585</v>
       </c>
       <c r="N3">
-        <v>19.77365398197553</v>
+        <v>227.0129374347252</v>
       </c>
       <c r="O3">
-        <v>22.33602726262709</v>
+        <v>137.3937678086665</v>
       </c>
       <c r="P3">
-        <v>46.23745040705489</v>
+        <v>276.5038902551398</v>
       </c>
       <c r="Q3">
-        <v>47.23727647809505</v>
+        <v>298.4931697217508</v>
       </c>
       <c r="R3">
-        <v>48.28000817289785</v>
+        <v>320.791307208191</v>
       </c>
       <c r="S3">
-        <v>120.5539458712656</v>
+        <v>702.862064891546</v>
       </c>
       <c r="T3">
-        <v>120.0229763545746</v>
+        <v>752.6316601136266</v>
       </c>
       <c r="U3">
-        <v>120.1391530884197</v>
+        <v>802.9463148804555</v>
       </c>
       <c r="V3">
-        <v>121.0446578040807</v>
+        <v>854.2175204528745</v>
       </c>
       <c r="W3">
-        <v>122.0407275745566</v>
+        <v>906.2499113636346</v>
       </c>
       <c r="X3">
-        <v>112.6952976880134</v>
+        <v>910.6663646064022</v>
       </c>
       <c r="Y3">
-        <v>114.1421228366808</v>
+        <v>960.7439049981414</v>
       </c>
       <c r="Z3">
-        <v>115.2124717498165</v>
+        <v>1011.238723806538</v>
       </c>
       <c r="AA3">
-        <v>116.5015733151664</v>
+        <v>1062.798774693127</v>
       </c>
       <c r="AB3">
-        <v>120.1908901782805</v>
+        <v>1115.829572827691</v>
       </c>
       <c r="AC3">
-        <v>43.93088028503939</v>
+        <v>521.0052099786052</v>
       </c>
       <c r="AD3">
-        <v>50.66519963162362</v>
+        <v>535.5571045692863</v>
       </c>
       <c r="AE3">
-        <v>57.18621919960521</v>
+        <v>554.2576639875682</v>
       </c>
       <c r="AF3">
-        <v>56.57879445882097</v>
+        <v>572.3546864100016</v>
       </c>
       <c r="AG3">
-        <v>54.08941786585346</v>
+        <v>593.5336044610616</v>
       </c>
       <c r="AH3">
-        <v>42.44986032714318</v>
+        <v>380.2203399627021</v>
       </c>
       <c r="AI3">
-        <v>40.86590823228595</v>
+        <v>383.8003716933619</v>
       </c>
       <c r="AJ3">
-        <v>38.84136640283199</v>
+        <v>402.5874891087003</v>
       </c>
       <c r="AK3">
-        <v>37.47130213297499</v>
+        <v>436.2107368981764</v>
       </c>
       <c r="AL3">
-        <v>42.85698682518339</v>
+        <v>468.9417266105482</v>
       </c>
       <c r="AM3">
-        <v>55.00742900006102</v>
+        <v>621.8558311076631</v>
       </c>
       <c r="AN3">
-        <v>68.39473383977786</v>
+        <v>701.1178309379923</v>
       </c>
       <c r="AO3">
-        <v>87.4400600992448</v>
+        <v>811.0295165519696</v>
       </c>
       <c r="AP3">
-        <v>111.8820995228385</v>
+        <v>952.8939095467546</v>
       </c>
       <c r="AQ3">
-        <v>124.438968367411</v>
+        <v>1054.537246728419</v>
       </c>
       <c r="AR3">
-        <v>125.6957540059041</v>
+        <v>1297.770069261192</v>
       </c>
       <c r="AS3">
-        <v>125.555190321383</v>
+        <v>1353.870669791225</v>
       </c>
       <c r="AT3">
-        <v>124.0941831196624</v>
+        <v>1400.971198195299</v>
       </c>
       <c r="AU3">
-        <v>121.5191071329099</v>
+        <v>1439.463816301867</v>
       </c>
       <c r="AV3">
-        <v>120.5961531681508</v>
+        <v>1478.551124489717</v>
       </c>
       <c r="AW3">
-        <v>118.8371392801114</v>
+        <v>1548.620264511114</v>
       </c>
       <c r="AX3">
-        <v>125.1153663079751</v>
+        <v>1532.887796745234</v>
       </c>
       <c r="AY3">
-        <v>108.8732805946981</v>
+        <v>1432.782638456368</v>
       </c>
       <c r="AZ3">
-        <v>86.6343807163673</v>
+        <v>1270.260869563703</v>
       </c>
       <c r="BA3">
-        <v>77.18763765819153</v>
+        <v>1189.594016376281</v>
       </c>
       <c r="BB3">
-        <v>76.71271908281548</v>
+        <v>1139.861443377305</v>
       </c>
       <c r="BC3">
-        <v>75.37000613113109</v>
+        <v>1132.099337456901</v>
       </c>
       <c r="BD3">
-        <v>71.09763927073335</v>
+        <v>1095.653756441408</v>
       </c>
       <c r="BE3">
-        <v>66.02455595683925</v>
+        <v>1039.945916477723</v>
       </c>
       <c r="BF3">
-        <v>63.08090708433815</v>
+        <v>1021.643142610522</v>
       </c>
       <c r="BG3">
-        <v>61.32496142526195</v>
+        <v>1011.834062176248</v>
       </c>
       <c r="BH3">
-        <v>64.24823911439275</v>
+        <v>1060.110500770521</v>
       </c>
       <c r="BI3">
-        <v>71.88523928586176</v>
+        <v>1134.295802994195</v>
       </c>
       <c r="BJ3">
-        <v>84.18198460608512</v>
+        <v>1236.169206527563</v>
       </c>
       <c r="BK3">
-        <v>99.6585500064607</v>
+        <v>1347.540557462597</v>
       </c>
       <c r="BL3">
-        <v>115.6665854585137</v>
+        <v>1446.442965909565</v>
       </c>
       <c r="BM3">
-        <v>131.2615451145357</v>
+        <v>1578.669555897643</v>
       </c>
       <c r="BN3">
-        <v>140.5630683962292</v>
+        <v>1714.883356613015</v>
       </c>
       <c r="BO3">
-        <v>143.3021727144192</v>
+        <v>1842.883026922021</v>
       </c>
       <c r="BP3">
-        <v>142.958805549564</v>
+        <v>1929.940923114552</v>
       </c>
       <c r="BQ3">
-        <v>140.8069210126489</v>
+        <v>1972.181238276765</v>
       </c>
       <c r="BR3">
-        <v>139.1485868101338</v>
+        <v>2016.552827211226</v>
       </c>
       <c r="BS3">
-        <v>137.5192980111276</v>
+        <v>2052.609252197432</v>
       </c>
       <c r="BT3">
-        <v>135.3022932371332</v>
+        <v>2065.450730321746</v>
       </c>
       <c r="BU3">
-        <v>130.0488654437873</v>
+        <v>2029.625888651708</v>
       </c>
       <c r="BV3">
-        <v>117.9658540706506</v>
+        <v>1932.995351470366</v>
       </c>
       <c r="BW3">
-        <v>105.0204989567183</v>
+        <v>1837.397904388625</v>
       </c>
       <c r="BX3">
-        <v>97.25835083526481</v>
+        <v>1769.997391744922</v>
       </c>
       <c r="BY3">
-        <v>94.25436016906313</v>
+        <v>1734.31158019865</v>
       </c>
       <c r="BZ3">
-        <v>91.95969894082127</v>
+        <v>1711.286265465485</v>
       </c>
       <c r="CA3">
-        <v>87.90816921175667</v>
+        <v>1674.309077080517</v>
       </c>
       <c r="CB3">
-        <v>84.86465632478776</v>
+        <v>1650.656662812106</v>
       </c>
       <c r="CC3">
-        <v>83.52477154904322</v>
+        <v>1646.550275949882</v>
       </c>
       <c r="CD3">
-        <v>84.9918228449137</v>
+        <v>1670.915119199449</v>
       </c>
       <c r="CE3">
-        <v>90.23604764328803</v>
+        <v>1727.313966652292</v>
       </c>
       <c r="CF3">
-        <v>98.59777653673741</v>
+        <v>1796.288141228411</v>
       </c>
       <c r="CG3">
-        <v>111.2191389535469</v>
+        <v>1896.949453715513</v>
       </c>
       <c r="CH3">
-        <v>125.5407709415999</v>
+        <v>2006.750142982725</v>
       </c>
       <c r="CI3">
-        <v>139.4493872231408</v>
+        <v>2122.216898885521</v>
       </c>
       <c r="CJ3">
-        <v>150.7273571561411</v>
+        <v>2244.797711192958</v>
       </c>
       <c r="CK3">
-        <v>156.2552150117765</v>
+        <v>2342.887974253284</v>
       </c>
       <c r="CL3">
-        <v>158.6758131032706</v>
+        <v>2445.521619650933</v>
       </c>
       <c r="CM3">
-        <v>158.3185532716699</v>
+        <v>2520.289728440301</v>
       </c>
       <c r="CN3">
-        <v>156.7220739711803</v>
+        <v>2569.748089577616</v>
       </c>
       <c r="CO3">
-        <v>154.6337098942899</v>
+        <v>2603.680150784162</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>24067653.7278982</v>
+        <v>1075522.015168602</v>
       </c>
       <c r="E4">
-        <v>24342990.12210053</v>
+        <v>966093.3152772721</v>
       </c>
       <c r="F4">
-        <v>26705749.27306316</v>
+        <v>843385.2203144282</v>
       </c>
       <c r="G4">
-        <v>26788952.28777868</v>
+        <v>978293.9869045243</v>
       </c>
       <c r="H4">
-        <v>24393663.59199544</v>
+        <v>1075046.703536506</v>
       </c>
       <c r="I4">
-        <v>23927145.7189053</v>
+        <v>1021744.601453619</v>
       </c>
       <c r="J4">
-        <v>26389475.02430129</v>
+        <v>1110846.101920097</v>
       </c>
       <c r="K4">
-        <v>29862995.73224224</v>
+        <v>1018928.595103082</v>
       </c>
       <c r="L4">
-        <v>29661313.14106187</v>
+        <v>1012099.560571023</v>
       </c>
       <c r="M4">
-        <v>31553954.10812925</v>
+        <v>1349911.958906171</v>
       </c>
       <c r="N4">
-        <v>34151134.93349309</v>
+        <v>1281032.802303347</v>
       </c>
       <c r="O4">
-        <v>31688012.608326</v>
+        <v>1268946.979803459</v>
       </c>
       <c r="P4">
-        <v>35198981.60807884</v>
+        <v>6577042.862927156</v>
       </c>
       <c r="Q4">
-        <v>36411081.03814065</v>
+        <v>6610691.345534475</v>
       </c>
       <c r="R4">
-        <v>37612887.89767105</v>
+        <v>6637210.039104891</v>
       </c>
       <c r="S4">
-        <v>42961753.65376543</v>
+        <v>20714584.627356</v>
       </c>
       <c r="T4">
-        <v>44277130.78208701</v>
+        <v>20757362.58756473</v>
       </c>
       <c r="U4">
-        <v>45597534.0869813</v>
+        <v>20807434.07040553</v>
       </c>
       <c r="V4">
-        <v>46920133.51179598</v>
+        <v>20864082.50591759</v>
       </c>
       <c r="W4">
-        <v>48242858.9211334</v>
+        <v>20926355.87968098</v>
       </c>
       <c r="X4">
-        <v>49130036.14195476</v>
+        <v>21555729.93191078</v>
       </c>
       <c r="Y4">
-        <v>50369538.96410672</v>
+        <v>21629205.32600079</v>
       </c>
       <c r="Z4">
-        <v>51604637.84031389</v>
+        <v>21700991.63951997</v>
       </c>
       <c r="AA4">
-        <v>52839465.93886963</v>
+        <v>21779446.44472438</v>
       </c>
       <c r="AB4">
-        <v>54080503.43704019</v>
+        <v>21866378.51286469</v>
       </c>
       <c r="AC4">
-        <v>50642704.93808085</v>
+        <v>6012692.225808828</v>
       </c>
       <c r="AD4">
-        <v>51898417.469247</v>
+        <v>6123690.620387901</v>
       </c>
       <c r="AE4">
-        <v>53159700.48511171</v>
+        <v>6256049.784022821</v>
       </c>
       <c r="AF4">
-        <v>54417716.31323347</v>
+        <v>6382215.322373674</v>
       </c>
       <c r="AG4">
-        <v>55681073.05681672</v>
+        <v>6544262.194706557</v>
       </c>
       <c r="AH4">
-        <v>56155121.80071884</v>
+        <v>1744528.972045335</v>
       </c>
       <c r="AI4">
-        <v>57481633.58567873</v>
+        <v>1910830.767422394</v>
       </c>
       <c r="AJ4">
-        <v>58840286.25100613</v>
+        <v>2188663.775515443</v>
       </c>
       <c r="AK4">
-        <v>60243283.22174483</v>
+        <v>2590113.838474147</v>
       </c>
       <c r="AL4">
-        <v>61706920.86029945</v>
+        <v>3100267.032843558</v>
       </c>
       <c r="AM4">
-        <v>63197269.98243342</v>
+        <v>6030060.354146731</v>
       </c>
       <c r="AN4">
-        <v>64713584.73853783</v>
+        <v>6866132.333246406</v>
       </c>
       <c r="AO4">
-        <v>66289669.76444049</v>
+        <v>7840521.510699477</v>
       </c>
       <c r="AP4">
-        <v>67914373.72755606</v>
+        <v>8944830.19259773</v>
       </c>
       <c r="AQ4">
-        <v>69423661.96586421</v>
+        <v>9791059.897339284</v>
       </c>
       <c r="AR4">
-        <v>70798152.14160332</v>
+        <v>13677623.62921993</v>
       </c>
       <c r="AS4">
-        <v>72129646.20650221</v>
+        <v>14133671.19461748</v>
       </c>
       <c r="AT4">
-        <v>73411141.61657384</v>
+        <v>14456944.76652895</v>
       </c>
       <c r="AU4">
-        <v>74639063.81735751</v>
+        <v>14630694.41569914</v>
       </c>
       <c r="AV4">
-        <v>76285490.90575817</v>
+        <v>14681998.20742974</v>
       </c>
       <c r="AW4">
-        <v>77632804.50137229</v>
+        <v>15457713.48677857</v>
       </c>
       <c r="AX4">
-        <v>78946461.67414361</v>
+        <v>15078199.41222964</v>
       </c>
       <c r="AY4">
-        <v>79941305.68715739</v>
+        <v>14333861.03343752</v>
       </c>
       <c r="AZ4">
-        <v>80849516.08656459</v>
+        <v>13339612.41530246</v>
       </c>
       <c r="BA4">
-        <v>81863373.4864331</v>
+        <v>12600309.52598386</v>
       </c>
       <c r="BB4">
-        <v>82978028.90721452</v>
+        <v>11502482.9589333</v>
       </c>
       <c r="BC4">
-        <v>84188367.65818579</v>
+        <v>11033212.96433273</v>
       </c>
       <c r="BD4">
-        <v>85403125.22078817</v>
+        <v>10579370.00343775</v>
       </c>
       <c r="BE4">
-        <v>86641546.08671527</v>
+        <v>10219215.39795297</v>
       </c>
       <c r="BF4">
-        <v>87940858.71760902</v>
+        <v>10004750.86223039</v>
       </c>
       <c r="BG4">
-        <v>89292033.36483641</v>
+        <v>9613345.916569896</v>
       </c>
       <c r="BH4">
-        <v>90793327.9121538</v>
+        <v>9747312.514046751</v>
       </c>
       <c r="BI4">
-        <v>92357478.84185316</v>
+        <v>10143189.64523697</v>
       </c>
       <c r="BJ4">
-        <v>93976936.25707205</v>
+        <v>10757744.21364279</v>
       </c>
       <c r="BK4">
-        <v>95640313.52359343</v>
+        <v>11492219.94284968</v>
       </c>
       <c r="BL4">
-        <v>97313162.08186252</v>
+        <v>12219597.23629989</v>
       </c>
       <c r="BM4">
-        <v>99044468.6431701</v>
+        <v>13068764.55140288</v>
       </c>
       <c r="BN4">
-        <v>100720382.5228197</v>
+        <v>13866082.04807327</v>
       </c>
       <c r="BO4">
-        <v>102332622.8092818</v>
+        <v>14558811.85947143</v>
       </c>
       <c r="BP4">
-        <v>103907403.7148323</v>
+        <v>15083364.45074024</v>
       </c>
       <c r="BQ4">
-        <v>105512647.7734193</v>
+        <v>15452667.1618989</v>
       </c>
       <c r="BR4">
-        <v>107143103.3090702</v>
+        <v>15748803.18630887</v>
       </c>
       <c r="BS4">
-        <v>108752731.4046072</v>
+        <v>15947897.40893294</v>
       </c>
       <c r="BT4">
-        <v>110332333.2429411</v>
+        <v>15999571.09079995</v>
       </c>
       <c r="BU4">
-        <v>111857408.3579071</v>
+        <v>15834767.91814431</v>
       </c>
       <c r="BV4">
-        <v>113328586.4932778</v>
+        <v>15374317.80639931</v>
       </c>
       <c r="BW4">
-        <v>114809584.8437056</v>
+        <v>14937368.10940413</v>
       </c>
       <c r="BX4">
-        <v>116328371.3484494</v>
+        <v>14619016.09215083</v>
       </c>
       <c r="BY4">
-        <v>117891006.4821515</v>
+        <v>14429801.24219627</v>
       </c>
       <c r="BZ4">
-        <v>119466381.7651784</v>
+        <v>14230894.84703834</v>
       </c>
       <c r="CA4">
-        <v>121071559.469428</v>
+        <v>13882204.42761558</v>
       </c>
       <c r="CB4">
-        <v>122733971.5107036</v>
+        <v>13686229.1786444</v>
       </c>
       <c r="CC4">
-        <v>124424289.0893602</v>
+        <v>13544643.7127633</v>
       </c>
       <c r="CD4">
-        <v>126153665.76518</v>
+        <v>13483008.74180501</v>
       </c>
       <c r="CE4">
-        <v>127927764.7407822</v>
+        <v>13512574.57024186</v>
       </c>
       <c r="CF4">
-        <v>129774465.9204876</v>
+        <v>13520133.84062532</v>
       </c>
       <c r="CG4">
-        <v>131710777.1609591</v>
+        <v>13930618.44130935</v>
       </c>
       <c r="CH4">
-        <v>133672240.722567</v>
+        <v>14422944.29886447</v>
       </c>
       <c r="CI4">
-        <v>135641059.3564934</v>
+        <v>14956965.30272431</v>
       </c>
       <c r="CJ4">
-        <v>137595571.7542221</v>
+        <v>15500022.62779297</v>
       </c>
       <c r="CK4">
-        <v>139520477.4968209</v>
+        <v>15629295.48273699</v>
       </c>
       <c r="CL4">
-        <v>141480146.5069685</v>
+        <v>16053817.10961566</v>
       </c>
       <c r="CM4">
-        <v>143413737.2851796</v>
+        <v>16383052.0633888</v>
       </c>
       <c r="CN4">
-        <v>145331714.1464282</v>
+        <v>16629613.67967826</v>
       </c>
       <c r="CO4">
-        <v>147237488.0325167</v>
+        <v>16811568.95535269</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1540832.618645904</v>
+        <v>1291614.386526798</v>
       </c>
       <c r="E5">
-        <v>905626.8468897486</v>
+        <v>864993.7226563516</v>
       </c>
       <c r="F5">
-        <v>454173.6525489102</v>
+        <v>808599.3355977043</v>
       </c>
       <c r="G5">
-        <v>279538.0487449715</v>
+        <v>779408.7494565691</v>
       </c>
       <c r="H5">
-        <v>262353.6556134509</v>
+        <v>747925.8192878232</v>
       </c>
       <c r="I5">
-        <v>187035.2341726728</v>
+        <v>934514.2596195417</v>
       </c>
       <c r="J5">
-        <v>154432.1996862054</v>
+        <v>1028235.55365406</v>
       </c>
       <c r="K5">
-        <v>200499.5688288134</v>
+        <v>894882.5490934907</v>
       </c>
       <c r="L5">
-        <v>362453.3961715251</v>
+        <v>828187.2913277829</v>
       </c>
       <c r="M5">
-        <v>321620.3448129292</v>
+        <v>926787.7748866708</v>
       </c>
       <c r="N5">
-        <v>407737.9141178961</v>
+        <v>974467.9488498564</v>
       </c>
       <c r="O5">
-        <v>511611.4104137522</v>
+        <v>1269050.069470771</v>
       </c>
       <c r="P5">
-        <v>3247276.194414807</v>
+        <v>9798138.554053785</v>
       </c>
       <c r="Q5">
-        <v>3263048.287391318</v>
+        <v>9813733.70835639</v>
       </c>
       <c r="R5">
-        <v>3282491.854026646</v>
+        <v>9833534.924016686</v>
       </c>
       <c r="S5">
-        <v>10318760.03848936</v>
+        <v>32570555.06933851</v>
       </c>
       <c r="T5">
-        <v>10346224.49169685</v>
+        <v>32600885.58059558</v>
       </c>
       <c r="U5">
-        <v>10377682.70249513</v>
+        <v>32637663.47487789</v>
       </c>
       <c r="V5">
-        <v>10412872.04010711</v>
+        <v>32681970.58967611</v>
       </c>
       <c r="W5">
-        <v>10451379.11493776</v>
+        <v>32735376.1697887</v>
       </c>
       <c r="X5">
-        <v>10031011.33406257</v>
+        <v>34481208.63163573</v>
       </c>
       <c r="Y5">
-        <v>10074865.77497019</v>
+        <v>34561069.28602537</v>
       </c>
       <c r="Z5">
-        <v>10121219.69391919</v>
+        <v>34661044.45700546</v>
       </c>
       <c r="AA5">
-        <v>10170788.63407676</v>
+        <v>34788387.49226158</v>
       </c>
       <c r="AB5">
-        <v>10225417.48298624</v>
+        <v>34953048.09931504</v>
       </c>
       <c r="AC5">
-        <v>2096771.993321012</v>
+        <v>10103296.68644501</v>
       </c>
       <c r="AD5">
-        <v>2173776.098773273</v>
+        <v>10386048.99490095</v>
       </c>
       <c r="AE5">
-        <v>2272256.931879507</v>
+        <v>10757363.96106781</v>
       </c>
       <c r="AF5">
-        <v>2401879.799687767</v>
+        <v>11242054.89349679</v>
       </c>
       <c r="AG5">
-        <v>2573841.278132599</v>
+        <v>11867842.84270197</v>
       </c>
       <c r="AH5">
-        <v>1250336.824812135</v>
+        <v>4266435.560857011</v>
       </c>
       <c r="AI5">
-        <v>1541365.33488456</v>
+        <v>5142221.404686913</v>
       </c>
       <c r="AJ5">
-        <v>1905897.751238745</v>
+        <v>6214447.040430948</v>
       </c>
       <c r="AK5">
-        <v>2348455.68062558</v>
+        <v>7652273.183272954</v>
       </c>
       <c r="AL5">
-        <v>2868146.088281779</v>
+        <v>9339072.261594033</v>
       </c>
       <c r="AM5">
-        <v>3457556.317459655</v>
+        <v>14794318.01260888</v>
       </c>
       <c r="AN5">
-        <v>4102068.747282756</v>
+        <v>16885441.96569972</v>
       </c>
       <c r="AO5">
-        <v>4779732.84683972</v>
+        <v>19099415.48819683</v>
       </c>
       <c r="AP5">
-        <v>5461816.851996798</v>
+        <v>21352495.94133448</v>
       </c>
       <c r="AQ5">
-        <v>6114253.723876734</v>
+        <v>23541503.73667008</v>
       </c>
       <c r="AR5">
-        <v>6700142.885669286</v>
+        <v>30479885.50532761</v>
       </c>
       <c r="AS5">
-        <v>7183128.835665853</v>
+        <v>32193885.45415216</v>
       </c>
       <c r="AT5">
-        <v>7531393.739014474</v>
+        <v>33507021.04055046</v>
       </c>
       <c r="AU5">
-        <v>7721612.057390523</v>
+        <v>34338431.8729829</v>
       </c>
       <c r="AV5">
-        <v>8787194.64808744</v>
+        <v>34642007.80756773</v>
       </c>
       <c r="AW5">
-        <v>8935462.353831498</v>
+        <v>35853998.15564823</v>
       </c>
       <c r="AX5">
-        <v>8635205.007148312</v>
+        <v>35128126.05435389</v>
       </c>
       <c r="AY5">
-        <v>8208851.771747959</v>
+        <v>33979908.04914365</v>
       </c>
       <c r="AZ5">
-        <v>7691892.537112359</v>
+        <v>32513197.34498737</v>
       </c>
       <c r="BA5">
-        <v>7125078.024948997</v>
+        <v>30852120.7037444</v>
       </c>
       <c r="BB5">
-        <v>6399139.465596611</v>
+        <v>28292127.01990749</v>
       </c>
       <c r="BC5">
-        <v>5859016.7876987</v>
+        <v>26647627.10109472</v>
       </c>
       <c r="BD5">
-        <v>5389910.397277993</v>
+        <v>25207365.31619149</v>
       </c>
       <c r="BE5">
-        <v>5021931.73378901</v>
+        <v>24081928.57761226</v>
       </c>
       <c r="BF5">
-        <v>4775832.748274753</v>
+        <v>23355428.53900569</v>
       </c>
       <c r="BG5">
-        <v>4511606.517853304</v>
+        <v>22615310.77793997</v>
       </c>
       <c r="BH5">
-        <v>4527396.805362361</v>
+        <v>22802457.37818201</v>
       </c>
       <c r="BI5">
-        <v>4662162.506695882</v>
+        <v>23433690.68039298</v>
       </c>
       <c r="BJ5">
-        <v>4897541.42299431</v>
+        <v>24460910.6967502</v>
       </c>
       <c r="BK5">
-        <v>5211235.630494928</v>
+        <v>25815794.7915305</v>
       </c>
       <c r="BL5">
-        <v>5467121.915117665</v>
+        <v>27353994.4040053</v>
       </c>
       <c r="BM5">
-        <v>5867600.707063454</v>
+        <v>29114173.87016592</v>
       </c>
       <c r="BN5">
-        <v>6278569.986770383</v>
+        <v>30942510.09114388</v>
       </c>
       <c r="BO5">
-        <v>6680307.33932237</v>
+        <v>32749942.90992217</v>
       </c>
       <c r="BP5">
-        <v>7055019.18370736</v>
+        <v>34453124.86782819</v>
       </c>
       <c r="BQ5">
-        <v>7308593.482581536</v>
+        <v>35993384.23754593</v>
       </c>
       <c r="BR5">
-        <v>7585229.241066579</v>
+        <v>37282549.59987587</v>
       </c>
       <c r="BS5">
-        <v>7796488.015880272</v>
+        <v>38292867.18028688</v>
       </c>
       <c r="BT5">
-        <v>7935872.545268201</v>
+        <v>39000559.83351083</v>
       </c>
       <c r="BU5">
-        <v>8000544.016186191</v>
+        <v>39400943.46810627</v>
       </c>
       <c r="BV5">
-        <v>7914903.395591993</v>
+        <v>39376264.91561321</v>
       </c>
       <c r="BW5">
-        <v>7837388.486976715</v>
+        <v>39222177.36202015</v>
       </c>
       <c r="BX5">
-        <v>7700508.011353662</v>
+        <v>38853808.79886982</v>
       </c>
       <c r="BY5">
-        <v>7517205.846344711</v>
+        <v>38329910.0702267</v>
       </c>
       <c r="BZ5">
-        <v>7303541.670916534</v>
+        <v>37716462.1798228</v>
       </c>
       <c r="CA5">
-        <v>6997137.749126362</v>
+        <v>36847016.51283381</v>
       </c>
       <c r="CB5">
-        <v>6777635.134865681</v>
+        <v>36257458.42976505</v>
       </c>
       <c r="CC5">
-        <v>6582166.170530158</v>
+        <v>35772540.15992746</v>
       </c>
       <c r="CD5">
-        <v>6425708.280783407</v>
+        <v>35441794.77067672</v>
       </c>
       <c r="CE5">
-        <v>6319364.651009934</v>
+        <v>35301837.52969275</v>
       </c>
       <c r="CF5">
-        <v>6178906.411502755</v>
+        <v>34971700.76043822</v>
       </c>
       <c r="CG5">
-        <v>6187662.604348835</v>
+        <v>35263498.09336597</v>
       </c>
       <c r="CH5">
-        <v>6252323.252341522</v>
+        <v>35765897.00827099</v>
       </c>
       <c r="CI5">
-        <v>6366674.628751559</v>
+        <v>36457173.98876674</v>
       </c>
       <c r="CJ5">
-        <v>6521693.352504279</v>
+        <v>37304794.26486703</v>
       </c>
       <c r="CK5">
-        <v>6582423.094210409</v>
+        <v>37636067.13594325</v>
       </c>
       <c r="CL5">
-        <v>6785042.401252376</v>
+        <v>38670417.63500196</v>
       </c>
       <c r="CM5">
-        <v>6993424.827791607</v>
+        <v>39728815.74880122</v>
       </c>
       <c r="CN5">
-        <v>7196077.91474497</v>
+        <v>40765953.46359747</v>
       </c>
       <c r="CO5">
-        <v>7382713.175641686</v>
+        <v>41740636.67145965</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>238.2077440031373</v>
+        <v>793.7358230959362</v>
       </c>
       <c r="E2">
-        <v>513.3148602053592</v>
+        <v>1828.285065436756</v>
       </c>
       <c r="F2">
-        <v>968.0746366474277</v>
+        <v>2862.298633719707</v>
       </c>
       <c r="G2">
-        <v>1304.997289135113</v>
+        <v>3844.883412113196</v>
       </c>
       <c r="H2">
-        <v>2167.733394512821</v>
+        <v>5162.743858632006</v>
       </c>
       <c r="I2">
-        <v>2663.459531840598</v>
+        <v>6113.488740649107</v>
       </c>
       <c r="J2">
-        <v>3216.664689899796</v>
+        <v>7833.76974979925</v>
       </c>
       <c r="K2">
-        <v>3852.991819362137</v>
+        <v>9543.959636583944</v>
       </c>
       <c r="L2">
-        <v>4360.259993747495</v>
+        <v>11065.68536835667</v>
       </c>
       <c r="M2">
-        <v>4982.866308383434</v>
+        <v>12468.29539712788</v>
       </c>
       <c r="N2">
-        <v>5299.448914154338</v>
+        <v>15468.7411136898</v>
       </c>
       <c r="O2">
-        <v>5652.226633709518</v>
+        <v>17290.07651096569</v>
       </c>
       <c r="P2">
-        <v>6361.988401783624</v>
+        <v>20940.63586094476</v>
       </c>
       <c r="Q2">
-        <v>7087.045798230499</v>
+        <v>24880.43297734608</v>
       </c>
       <c r="R2">
-        <v>7828.030308789715</v>
+        <v>29113.49128597562</v>
       </c>
       <c r="S2">
-        <v>9646.082017005981</v>
+        <v>38368.88754753608</v>
       </c>
       <c r="T2">
-        <v>11456.95219820017</v>
+        <v>48278.77128995709</v>
       </c>
       <c r="U2">
-        <v>13270.19757077964</v>
+        <v>58850.24959536787</v>
       </c>
       <c r="V2">
-        <v>15097.47361026972</v>
+        <v>70095.79151986504</v>
       </c>
       <c r="W2">
-        <v>16940.11775047886</v>
+        <v>82025.32041665836</v>
       </c>
       <c r="X2">
-        <v>18644.07541577817</v>
+        <v>94013.03858989364</v>
       </c>
       <c r="Y2">
-        <v>20370.03446868491</v>
+        <v>106658.7490838641</v>
       </c>
       <c r="Z2">
-        <v>22112.43523124112</v>
+        <v>119967.895161251</v>
       </c>
       <c r="AA2">
-        <v>23874.50779824566</v>
+        <v>133954.3691711648</v>
       </c>
       <c r="AB2">
-        <v>25691.69411225342</v>
+        <v>148637.3512651682</v>
       </c>
       <c r="AC2">
-        <v>26372.96520638683</v>
+        <v>155502.5962678066</v>
       </c>
       <c r="AD2">
-        <v>27154.32999654337</v>
+        <v>162558.8325898334</v>
       </c>
       <c r="AE2">
-        <v>28032.64131027573</v>
+        <v>169860.1570431741</v>
       </c>
       <c r="AF2">
-        <v>28902.64509982144</v>
+        <v>177398.7417914542</v>
       </c>
       <c r="AG2">
-        <v>29736.5567535722</v>
+        <v>185214.8042292633</v>
       </c>
       <c r="AH2">
-        <v>30397.8171462573</v>
+        <v>190227.1964977888</v>
       </c>
       <c r="AI2">
-        <v>31036.38992082948</v>
+        <v>195286.5787957409</v>
       </c>
       <c r="AJ2">
-        <v>31645.78026127249</v>
+        <v>200591.2015735209</v>
       </c>
       <c r="AK2">
-        <v>32235.66541930072</v>
+        <v>206334.5386387743</v>
       </c>
       <c r="AL2">
-        <v>32905.81435136645</v>
+        <v>212505.0758390997</v>
       </c>
       <c r="AM2">
-        <v>33756.13246377858</v>
+        <v>220680.2338284018</v>
       </c>
       <c r="AN2">
-        <v>34804.89106241544</v>
+        <v>229889.6187472481</v>
       </c>
       <c r="AO2">
-        <v>36135.64818744631</v>
+        <v>240532.7073676829</v>
       </c>
       <c r="AP2">
-        <v>37828.09965679799</v>
+        <v>253025.9221439011</v>
       </c>
       <c r="AQ2">
-        <v>39706.72870926181</v>
+        <v>266845.0503818009</v>
       </c>
       <c r="AR2">
-        <v>41604.67863895329</v>
+        <v>283855.6418512962</v>
       </c>
       <c r="AS2">
-        <v>43501.30235176446</v>
+        <v>301599.2462703565</v>
       </c>
       <c r="AT2">
-        <v>45377.08516462273</v>
+        <v>319958.4156354693</v>
       </c>
       <c r="AU2">
-        <v>47215.55765203369</v>
+        <v>338820.780891053</v>
       </c>
       <c r="AV2">
-        <v>49041.21137397284</v>
+        <v>358193.8837359414</v>
       </c>
       <c r="AW2">
-        <v>50841.66426931558</v>
+        <v>378485.926911235</v>
       </c>
       <c r="AX2">
-        <v>52737.17608988492</v>
+        <v>398574.1133967151</v>
       </c>
       <c r="AY2">
-        <v>54393.5427132223</v>
+        <v>417358.7530472862</v>
       </c>
       <c r="AZ2">
-        <v>55722.1949165048</v>
+        <v>434026.3286563257</v>
       </c>
       <c r="BA2">
-        <v>56912.03537548181</v>
+        <v>449643.4886525073</v>
       </c>
       <c r="BB2">
-        <v>58095.4207421998</v>
+        <v>464607.8028883694</v>
       </c>
       <c r="BC2">
-        <v>59259.75041028376</v>
+        <v>479471.6774310811</v>
       </c>
       <c r="BD2">
-        <v>60361.77120686792</v>
+        <v>493861.4106642735</v>
       </c>
       <c r="BE2">
-        <v>61389.670450983</v>
+        <v>507526.1236910824</v>
       </c>
       <c r="BF2">
-        <v>62374.90966611892</v>
+        <v>520953.4132940092</v>
       </c>
       <c r="BG2">
-        <v>63334.89881664082</v>
+        <v>534250.1377837273</v>
       </c>
       <c r="BH2">
-        <v>64338.955806485</v>
+        <v>548177.3522620838</v>
       </c>
       <c r="BI2">
-        <v>65456.70070031786</v>
+        <v>563072.8859182831</v>
       </c>
       <c r="BJ2">
-        <v>66756.95399068462</v>
+        <v>579297.7313176509</v>
       </c>
       <c r="BK2">
-        <v>68286.68075834024</v>
+        <v>596975.7982372686</v>
       </c>
       <c r="BL2">
-        <v>70053.62928832155</v>
+        <v>615942.4857031805</v>
       </c>
       <c r="BM2">
-        <v>72051.85581242848</v>
+        <v>636634.2944076315</v>
       </c>
       <c r="BN2">
-        <v>74188.42325865221</v>
+        <v>659103.1858555441</v>
       </c>
       <c r="BO2">
-        <v>76366.4200985447</v>
+        <v>683242.0837159071</v>
       </c>
       <c r="BP2">
-        <v>78540.32266963087</v>
+        <v>708517.399957774</v>
       </c>
       <c r="BQ2">
-        <v>80683.38301580661</v>
+        <v>734343.9237706763</v>
       </c>
       <c r="BR2">
-        <v>82802.98975369403</v>
+        <v>760750.4542311718</v>
       </c>
       <c r="BS2">
-        <v>84899.56390841147</v>
+        <v>787628.5188851579</v>
       </c>
       <c r="BT2">
-        <v>86964.41740424813</v>
+        <v>814675.4664015264</v>
       </c>
       <c r="BU2">
-        <v>88952.70037948387</v>
+        <v>841256.9711735009</v>
       </c>
       <c r="BV2">
-        <v>90763.50598148248</v>
+        <v>866579.1715257535</v>
       </c>
       <c r="BW2">
-        <v>92384.19602128782</v>
+        <v>890656.7997954038</v>
       </c>
       <c r="BX2">
-        <v>93891.3081921884</v>
+        <v>913857.2439769252</v>
       </c>
       <c r="BY2">
-        <v>95355.10609677085</v>
+        <v>936593.7565167387</v>
       </c>
       <c r="BZ2">
-        <v>96786.06452850049</v>
+        <v>959031.28817361</v>
       </c>
       <c r="CA2">
-        <v>98158.19542255561</v>
+        <v>980986.7911829588</v>
       </c>
       <c r="CB2">
-        <v>99486.49624029458</v>
+        <v>1002635.180757467</v>
       </c>
       <c r="CC2">
-        <v>100796.1291360077</v>
+        <v>1024231.209970878</v>
       </c>
       <c r="CD2">
-        <v>102128.5503169549</v>
+        <v>1046145.959782874</v>
       </c>
       <c r="CE2">
-        <v>103539.5438078684</v>
+        <v>1068796.955423153</v>
       </c>
       <c r="CF2">
-        <v>105075.1015577756</v>
+        <v>1092346.624359011</v>
       </c>
       <c r="CG2">
-        <v>106798.255270122</v>
+        <v>1117209.586724251</v>
       </c>
       <c r="CH2">
-        <v>108734.1185435594</v>
+        <v>1143505.029952012</v>
       </c>
       <c r="CI2">
-        <v>110876.5971316916</v>
+        <v>1171306.861841335</v>
       </c>
       <c r="CJ2">
-        <v>113186.8472544625</v>
+        <v>1200707.837490147</v>
       </c>
       <c r="CK2">
-        <v>115579.8573583163</v>
+        <v>1231386.398014555</v>
       </c>
       <c r="CL2">
-        <v>118009.9112014888</v>
+        <v>1263404.211143421</v>
       </c>
       <c r="CM2">
-        <v>120435.9870246778</v>
+        <v>1296398.14557517</v>
       </c>
       <c r="CN2">
-        <v>122839.7834846383</v>
+        <v>1330038.36341608</v>
       </c>
       <c r="CO2">
-        <v>125214.0342079773</v>
+        <v>1364122.505087885</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>14.99156499716545</v>
+        <v>59.47279146422881</v>
       </c>
       <c r="E3">
-        <v>32.40922694421752</v>
+        <v>137.2235176324257</v>
       </c>
       <c r="F3">
-        <v>61.78486372379167</v>
+        <v>214.8342900868971</v>
       </c>
       <c r="G3">
-        <v>83.24695006815729</v>
+        <v>288.5302070565265</v>
       </c>
       <c r="H3">
-        <v>140.1147025295666</v>
+        <v>387.8241447789085</v>
       </c>
       <c r="I3">
-        <v>172.3221378477772</v>
+        <v>459.169189291301</v>
       </c>
       <c r="J3">
-        <v>208.2878018905198</v>
+        <v>588.9847568132723</v>
       </c>
       <c r="K3">
-        <v>249.6969970930895</v>
+        <v>717.9046869174791</v>
       </c>
       <c r="L3">
-        <v>282.4789948913666</v>
+        <v>832.5197832160246</v>
       </c>
       <c r="M3">
-        <v>322.9411922623121</v>
+        <v>938.0049340638832</v>
       </c>
       <c r="N3">
-        <v>342.7148462442876</v>
+        <v>1165.017871498608</v>
       </c>
       <c r="O3">
-        <v>365.0508735069147</v>
+        <v>1302.411639307275</v>
       </c>
       <c r="P3">
-        <v>411.2883239139696</v>
+        <v>1578.915529562415</v>
       </c>
       <c r="Q3">
-        <v>458.5256003920647</v>
+        <v>1877.408699284166</v>
       </c>
       <c r="R3">
-        <v>506.8056085649625</v>
+        <v>2198.200006492356</v>
       </c>
       <c r="S3">
-        <v>627.3595544362281</v>
+        <v>2901.062071383903</v>
       </c>
       <c r="T3">
-        <v>747.3825307908028</v>
+        <v>3653.693731497529</v>
       </c>
       <c r="U3">
-        <v>867.5216838792225</v>
+        <v>4456.640046377985</v>
       </c>
       <c r="V3">
-        <v>988.5663416833031</v>
+        <v>5310.857566830859</v>
       </c>
       <c r="W3">
-        <v>1110.60706925786</v>
+        <v>6217.107478194494</v>
       </c>
       <c r="X3">
-        <v>1223.302366945873</v>
+        <v>7127.773842800897</v>
       </c>
       <c r="Y3">
-        <v>1337.444489782554</v>
+        <v>8088.517747799038</v>
       </c>
       <c r="Z3">
-        <v>1452.65696153237</v>
+        <v>9099.756471605577</v>
       </c>
       <c r="AA3">
-        <v>1569.158534847536</v>
+        <v>10162.5552462987</v>
       </c>
       <c r="AB3">
-        <v>1689.349425025817</v>
+        <v>11278.3848191264</v>
       </c>
       <c r="AC3">
-        <v>1733.280305310856</v>
+        <v>11799.390029105</v>
       </c>
       <c r="AD3">
-        <v>1783.94550494248</v>
+        <v>12334.94713367429</v>
       </c>
       <c r="AE3">
-        <v>1841.131724142085</v>
+        <v>12889.20479766185</v>
       </c>
       <c r="AF3">
-        <v>1897.710518600906</v>
+        <v>13461.55948407185</v>
       </c>
       <c r="AG3">
-        <v>1951.799936466759</v>
+        <v>14055.09308853292</v>
       </c>
       <c r="AH3">
-        <v>1994.249796793903</v>
+        <v>14435.31342849562</v>
       </c>
       <c r="AI3">
-        <v>2035.115705026188</v>
+        <v>14819.11380018898</v>
       </c>
       <c r="AJ3">
-        <v>2073.95707142902</v>
+        <v>15221.70128929768</v>
       </c>
       <c r="AK3">
-        <v>2111.428373561995</v>
+        <v>15657.91202619586</v>
       </c>
       <c r="AL3">
-        <v>2154.285360387179</v>
+        <v>16126.8537528064</v>
       </c>
       <c r="AM3">
-        <v>2209.29278938724</v>
+        <v>16748.70958391407</v>
       </c>
       <c r="AN3">
-        <v>2277.687523227018</v>
+        <v>17449.82741485206</v>
       </c>
       <c r="AO3">
-        <v>2365.127583326263</v>
+        <v>18260.85693140403</v>
       </c>
       <c r="AP3">
-        <v>2477.009682849101</v>
+        <v>19213.75084095079</v>
       </c>
       <c r="AQ3">
-        <v>2601.448651216512</v>
+        <v>20268.2880876792</v>
       </c>
       <c r="AR3">
-        <v>2727.144405222416</v>
+        <v>21566.05815694039</v>
       </c>
       <c r="AS3">
-        <v>2852.699595543799</v>
+        <v>22919.92882673162</v>
       </c>
       <c r="AT3">
-        <v>2976.793778663461</v>
+        <v>24320.90002492692</v>
       </c>
       <c r="AU3">
-        <v>3098.312885796371</v>
+        <v>25760.36384122879</v>
       </c>
       <c r="AV3">
-        <v>3218.909038964522</v>
+        <v>27238.9149657185</v>
       </c>
       <c r="AW3">
-        <v>3337.746178244633</v>
+        <v>28787.53523022962</v>
       </c>
       <c r="AX3">
-        <v>3462.861544552608</v>
+        <v>30320.42302697486</v>
       </c>
       <c r="AY3">
-        <v>3571.734825147306</v>
+        <v>31753.20566543122</v>
       </c>
       <c r="AZ3">
-        <v>3658.369205863673</v>
+        <v>33023.46653499493</v>
       </c>
       <c r="BA3">
-        <v>3735.556843521865</v>
+        <v>34213.06055137121</v>
       </c>
       <c r="BB3">
-        <v>3812.26956260468</v>
+        <v>35352.92199474851</v>
       </c>
       <c r="BC3">
-        <v>3887.639568735811</v>
+        <v>36485.02133220541</v>
       </c>
       <c r="BD3">
-        <v>3958.737208006545</v>
+        <v>37580.67508864682</v>
       </c>
       <c r="BE3">
-        <v>4024.761763963384</v>
+        <v>38620.62100512454</v>
       </c>
       <c r="BF3">
-        <v>4087.842671047722</v>
+        <v>39642.26414773506</v>
       </c>
       <c r="BG3">
-        <v>4149.167632472984</v>
+        <v>40654.09820991131</v>
       </c>
       <c r="BH3">
-        <v>4213.415871587377</v>
+        <v>41714.20871068183</v>
       </c>
       <c r="BI3">
-        <v>4285.301110873239</v>
+        <v>42848.50451367602</v>
       </c>
       <c r="BJ3">
-        <v>4369.483095479324</v>
+        <v>44084.67372020359</v>
       </c>
       <c r="BK3">
-        <v>4469.141645485784</v>
+        <v>45432.21427766619</v>
       </c>
       <c r="BL3">
-        <v>4584.808230944298</v>
+        <v>46878.65724357575</v>
       </c>
       <c r="BM3">
-        <v>4716.069776058834</v>
+        <v>48457.32679947339</v>
       </c>
       <c r="BN3">
-        <v>4856.632844455063</v>
+        <v>50172.2101560864</v>
       </c>
       <c r="BO3">
-        <v>4999.935017169482</v>
+        <v>52015.09318300842</v>
       </c>
       <c r="BP3">
-        <v>5142.893822719047</v>
+        <v>53945.03410612298</v>
       </c>
       <c r="BQ3">
-        <v>5283.700743731695</v>
+        <v>55917.21534439974</v>
       </c>
       <c r="BR3">
-        <v>5422.849330541829</v>
+        <v>57933.76817161097</v>
       </c>
       <c r="BS3">
-        <v>5560.368628552957</v>
+        <v>59986.37742380841</v>
       </c>
       <c r="BT3">
-        <v>5695.67092179009</v>
+        <v>62051.82815413015</v>
       </c>
       <c r="BU3">
-        <v>5825.719787233877</v>
+        <v>64081.45404278186</v>
       </c>
       <c r="BV3">
-        <v>5943.685641304528</v>
+        <v>66014.44939425222</v>
       </c>
       <c r="BW3">
-        <v>6048.706140261246</v>
+        <v>67851.84729864085</v>
       </c>
       <c r="BX3">
-        <v>6145.964491096511</v>
+        <v>69621.84469038577</v>
       </c>
       <c r="BY3">
-        <v>6240.218851265574</v>
+        <v>71356.15627058441</v>
       </c>
       <c r="BZ3">
-        <v>6332.178550206395</v>
+        <v>73067.4425360499</v>
       </c>
       <c r="CA3">
-        <v>6420.086719418152</v>
+        <v>74741.75161313041</v>
       </c>
       <c r="CB3">
-        <v>6504.951375742939</v>
+        <v>76392.40827594252</v>
       </c>
       <c r="CC3">
-        <v>6588.476147291983</v>
+        <v>78038.9585518924</v>
       </c>
       <c r="CD3">
-        <v>6673.467970136896</v>
+        <v>79709.87367109185</v>
       </c>
       <c r="CE3">
-        <v>6763.704017780184</v>
+        <v>81437.18763774414</v>
       </c>
       <c r="CF3">
-        <v>6862.301794316921</v>
+        <v>83233.47577897256</v>
       </c>
       <c r="CG3">
-        <v>6973.520933270468</v>
+        <v>85130.42523268807</v>
       </c>
       <c r="CH3">
-        <v>7099.061704212068</v>
+        <v>87137.17537567079</v>
       </c>
       <c r="CI3">
-        <v>7238.511091435208</v>
+        <v>89259.39227455632</v>
       </c>
       <c r="CJ3">
-        <v>7389.238448591349</v>
+        <v>91504.18998574928</v>
       </c>
       <c r="CK3">
-        <v>7545.493663603125</v>
+        <v>93847.07796000257</v>
       </c>
       <c r="CL3">
-        <v>7704.169476706395</v>
+        <v>96292.5995796535</v>
       </c>
       <c r="CM3">
-        <v>7862.488029978065</v>
+        <v>98812.8893080938</v>
       </c>
       <c r="CN3">
-        <v>8019.210103949245</v>
+        <v>101382.6373976714</v>
       </c>
       <c r="CO3">
-        <v>8173.843813843535</v>
+        <v>103986.3175484556</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>24067653.7278982</v>
+        <v>1075522.015168602</v>
       </c>
       <c r="E4">
-        <v>48410643.84999873</v>
+        <v>2041615.330445874</v>
       </c>
       <c r="F4">
-        <v>75116393.12306188</v>
+        <v>2885000.550760302</v>
       </c>
       <c r="G4">
-        <v>101905345.4108406</v>
+        <v>3863294.537664826</v>
       </c>
       <c r="H4">
-        <v>126299009.002836</v>
+        <v>4938341.241201333</v>
       </c>
       <c r="I4">
-        <v>150226154.7217413</v>
+        <v>5960085.842654952</v>
       </c>
       <c r="J4">
-        <v>176615629.7460426</v>
+        <v>7070931.944575049</v>
       </c>
       <c r="K4">
-        <v>206478625.4782848</v>
+        <v>8089860.53967813</v>
       </c>
       <c r="L4">
-        <v>236139938.6193467</v>
+        <v>9101960.100249154</v>
       </c>
       <c r="M4">
-        <v>267693892.7274759</v>
+        <v>10451872.05915533</v>
       </c>
       <c r="N4">
-        <v>301845027.660969</v>
+        <v>11732904.86145867</v>
       </c>
       <c r="O4">
-        <v>333533040.269295</v>
+        <v>13001851.84126213</v>
       </c>
       <c r="P4">
-        <v>368732021.8773739</v>
+        <v>19578894.70418929</v>
       </c>
       <c r="Q4">
-        <v>405143102.9155145</v>
+        <v>26189586.04972376</v>
       </c>
       <c r="R4">
-        <v>442755990.8131856</v>
+        <v>32826796.08882865</v>
       </c>
       <c r="S4">
-        <v>485717744.466951</v>
+        <v>53541380.71618465</v>
       </c>
       <c r="T4">
-        <v>529994875.249038</v>
+        <v>74298743.30374937</v>
       </c>
       <c r="U4">
-        <v>575592409.3360194</v>
+        <v>95106177.3741549</v>
       </c>
       <c r="V4">
-        <v>622512542.8478154</v>
+        <v>115970259.8800725</v>
       </c>
       <c r="W4">
-        <v>670755401.7689488</v>
+        <v>136896615.7597535</v>
       </c>
       <c r="X4">
-        <v>719885437.9109036</v>
+        <v>158452345.6916642</v>
       </c>
       <c r="Y4">
-        <v>770254976.8750103</v>
+        <v>180081551.017665</v>
       </c>
       <c r="Z4">
-        <v>821859614.7153242</v>
+        <v>201782542.657185</v>
       </c>
       <c r="AA4">
-        <v>874699080.6541938</v>
+        <v>223561989.1019094</v>
       </c>
       <c r="AB4">
-        <v>928779584.091234</v>
+        <v>245428367.6147741</v>
       </c>
       <c r="AC4">
-        <v>979422289.0293148</v>
+        <v>251441059.8405829</v>
       </c>
       <c r="AD4">
-        <v>1031320706.498562</v>
+        <v>257564750.4609708</v>
       </c>
       <c r="AE4">
-        <v>1084480406.983674</v>
+        <v>263820800.2449937</v>
       </c>
       <c r="AF4">
-        <v>1138898123.296907</v>
+        <v>270203015.5673673</v>
       </c>
       <c r="AG4">
-        <v>1194579196.353724</v>
+        <v>276747277.7620739</v>
       </c>
       <c r="AH4">
-        <v>1250734318.154443</v>
+        <v>278491806.7341192</v>
       </c>
       <c r="AI4">
-        <v>1308215951.740121</v>
+        <v>280402637.5015416</v>
       </c>
       <c r="AJ4">
-        <v>1367056237.991127</v>
+        <v>282591301.2770571</v>
       </c>
       <c r="AK4">
-        <v>1427299521.212872</v>
+        <v>285181415.1155312</v>
       </c>
       <c r="AL4">
-        <v>1489006442.073172</v>
+        <v>288281682.1483747</v>
       </c>
       <c r="AM4">
-        <v>1552203712.055605</v>
+        <v>294311742.5025215</v>
       </c>
       <c r="AN4">
-        <v>1616917296.794143</v>
+        <v>301177874.8357679</v>
       </c>
       <c r="AO4">
-        <v>1683206966.558583</v>
+        <v>309018396.3464673</v>
       </c>
       <c r="AP4">
-        <v>1751121340.286139</v>
+        <v>317963226.5390651</v>
       </c>
       <c r="AQ4">
-        <v>1820545002.252003</v>
+        <v>327754286.4364043</v>
       </c>
       <c r="AR4">
-        <v>1891343154.393607</v>
+        <v>341431910.0656243</v>
       </c>
       <c r="AS4">
-        <v>1963472800.600109</v>
+        <v>355565581.2602418</v>
       </c>
       <c r="AT4">
-        <v>2036883942.216683</v>
+        <v>370022526.0267708</v>
       </c>
       <c r="AU4">
-        <v>2111523006.03404</v>
+        <v>384653220.4424699</v>
       </c>
       <c r="AV4">
-        <v>2187808496.939798</v>
+        <v>399335218.6498996</v>
       </c>
       <c r="AW4">
-        <v>2265441301.441171</v>
+        <v>414792932.1366782</v>
       </c>
       <c r="AX4">
-        <v>2344387763.115314</v>
+        <v>429871131.5489078</v>
       </c>
       <c r="AY4">
-        <v>2424329068.802472</v>
+        <v>444204992.5823454</v>
       </c>
       <c r="AZ4">
-        <v>2505178584.889037</v>
+        <v>457544604.9976478</v>
       </c>
       <c r="BA4">
-        <v>2587041958.37547</v>
+        <v>470144914.5236317</v>
       </c>
       <c r="BB4">
-        <v>2670019987.282684</v>
+        <v>481647397.482565</v>
       </c>
       <c r="BC4">
-        <v>2754208354.94087</v>
+        <v>492680610.4468977</v>
       </c>
       <c r="BD4">
-        <v>2839611480.161658</v>
+        <v>503259980.4503354</v>
       </c>
       <c r="BE4">
-        <v>2926253026.248374</v>
+        <v>513479195.8482884</v>
       </c>
       <c r="BF4">
-        <v>3014193884.965982</v>
+        <v>523483946.7105188</v>
       </c>
       <c r="BG4">
-        <v>3103485918.330819</v>
+        <v>533097292.6270887</v>
       </c>
       <c r="BH4">
-        <v>3194279246.242972</v>
+        <v>542844605.1411355</v>
       </c>
       <c r="BI4">
-        <v>3286636725.084826</v>
+        <v>552987794.7863724</v>
       </c>
       <c r="BJ4">
-        <v>3380613661.341897</v>
+        <v>563745539.0000153</v>
       </c>
       <c r="BK4">
-        <v>3476253974.865491</v>
+        <v>575237758.9428649</v>
       </c>
       <c r="BL4">
-        <v>3573567136.947353</v>
+        <v>587457356.1791648</v>
       </c>
       <c r="BM4">
-        <v>3672611605.590523</v>
+        <v>600526120.7305677</v>
       </c>
       <c r="BN4">
-        <v>3773331988.113343</v>
+        <v>614392202.778641</v>
       </c>
       <c r="BO4">
-        <v>3875664610.922625</v>
+        <v>628951014.6381124</v>
       </c>
       <c r="BP4">
-        <v>3979572014.637457</v>
+        <v>644034379.0888526</v>
       </c>
       <c r="BQ4">
-        <v>4085084662.410876</v>
+        <v>659487046.2507515</v>
       </c>
       <c r="BR4">
-        <v>4192227765.719946</v>
+        <v>675235849.4370604</v>
       </c>
       <c r="BS4">
-        <v>4300980497.124554</v>
+        <v>691183746.8459933</v>
       </c>
       <c r="BT4">
-        <v>4411312830.367495</v>
+        <v>707183317.9367932</v>
       </c>
       <c r="BU4">
-        <v>4523170238.725402</v>
+        <v>723018085.8549376</v>
       </c>
       <c r="BV4">
-        <v>4636498825.218679</v>
+        <v>738392403.6613369</v>
       </c>
       <c r="BW4">
-        <v>4751308410.062385</v>
+        <v>753329771.770741</v>
       </c>
       <c r="BX4">
-        <v>4867636781.410834</v>
+        <v>767948787.8628918</v>
       </c>
       <c r="BY4">
-        <v>4985527787.892986</v>
+        <v>782378589.1050881</v>
       </c>
       <c r="BZ4">
-        <v>5104994169.658165</v>
+        <v>796609483.9521265</v>
       </c>
       <c r="CA4">
-        <v>5226065729.127593</v>
+        <v>810491688.379742</v>
       </c>
       <c r="CB4">
-        <v>5348799700.638297</v>
+        <v>824177917.5583864</v>
       </c>
       <c r="CC4">
-        <v>5473223989.727657</v>
+        <v>837722561.2711498</v>
       </c>
       <c r="CD4">
-        <v>5599377655.492837</v>
+        <v>851205570.0129547</v>
       </c>
       <c r="CE4">
-        <v>5727305420.233619</v>
+        <v>864718144.5831965</v>
       </c>
       <c r="CF4">
-        <v>5857079886.154106</v>
+        <v>878238278.4238218</v>
       </c>
       <c r="CG4">
-        <v>5988790663.315065</v>
+        <v>892168896.8651311</v>
       </c>
       <c r="CH4">
-        <v>6122462904.037632</v>
+        <v>906591841.1639956</v>
       </c>
       <c r="CI4">
-        <v>6258103963.394125</v>
+        <v>921548806.46672</v>
       </c>
       <c r="CJ4">
-        <v>6395699535.148347</v>
+        <v>937048829.0945129</v>
       </c>
       <c r="CK4">
-        <v>6535220012.645167</v>
+        <v>952678124.5772499</v>
       </c>
       <c r="CL4">
-        <v>6676700159.152136</v>
+        <v>968731941.6868656</v>
       </c>
       <c r="CM4">
-        <v>6820113896.437315</v>
+        <v>985114993.7502544</v>
       </c>
       <c r="CN4">
-        <v>6965445610.583743</v>
+        <v>1001744607.429933</v>
       </c>
       <c r="CO4">
-        <v>7112683098.61626</v>
+        <v>1018556176.385285</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1540832.618645904</v>
+        <v>1291614.386526798</v>
       </c>
       <c r="E5">
-        <v>2446459.465535653</v>
+        <v>2156608.10918315</v>
       </c>
       <c r="F5">
-        <v>2900633.118084563</v>
+        <v>2965207.444780854</v>
       </c>
       <c r="G5">
-        <v>3180171.166829534</v>
+        <v>3744616.194237423</v>
       </c>
       <c r="H5">
-        <v>3442524.822442985</v>
+        <v>4492542.013525247</v>
       </c>
       <c r="I5">
-        <v>3629560.056615658</v>
+        <v>5427056.273144788</v>
       </c>
       <c r="J5">
-        <v>3783992.256301864</v>
+        <v>6455291.826798848</v>
       </c>
       <c r="K5">
-        <v>3984491.825130677</v>
+        <v>7350174.375892338</v>
       </c>
       <c r="L5">
-        <v>4346945.221302202</v>
+        <v>8178361.667220121</v>
       </c>
       <c r="M5">
-        <v>4668565.566115132</v>
+        <v>9105149.442106793</v>
       </c>
       <c r="N5">
-        <v>5076303.480233028</v>
+        <v>10079617.39095665</v>
       </c>
       <c r="O5">
-        <v>5587914.89064678</v>
+        <v>11348667.46042742</v>
       </c>
       <c r="P5">
-        <v>8835191.085061587</v>
+        <v>21146806.01448121</v>
       </c>
       <c r="Q5">
-        <v>12098239.37245291</v>
+        <v>30960539.7228376</v>
       </c>
       <c r="R5">
-        <v>15380731.22647955</v>
+        <v>40794074.64685428</v>
       </c>
       <c r="S5">
-        <v>25699491.26496891</v>
+        <v>73364629.7161928</v>
       </c>
       <c r="T5">
-        <v>36045715.75666575</v>
+        <v>105965515.2967884</v>
       </c>
       <c r="U5">
-        <v>46423398.45916088</v>
+        <v>138603178.7716663</v>
       </c>
       <c r="V5">
-        <v>56836270.499268</v>
+        <v>171285149.3613424</v>
       </c>
       <c r="W5">
-        <v>67287649.61420576</v>
+        <v>204020525.5311311</v>
       </c>
       <c r="X5">
-        <v>77318660.94826832</v>
+        <v>238501734.1627668</v>
       </c>
       <c r="Y5">
-        <v>87393526.72323851</v>
+        <v>273062803.4487922</v>
       </c>
       <c r="Z5">
-        <v>97514746.41715771</v>
+        <v>307723847.9057976</v>
       </c>
       <c r="AA5">
-        <v>107685535.0512345</v>
+        <v>342512235.3980592</v>
       </c>
       <c r="AB5">
-        <v>117910952.5342207</v>
+        <v>377465283.4973742</v>
       </c>
       <c r="AC5">
-        <v>120007724.5275417</v>
+        <v>387568580.1838192</v>
       </c>
       <c r="AD5">
-        <v>122181500.626315</v>
+        <v>397954629.1787202</v>
       </c>
       <c r="AE5">
-        <v>124453757.5581945</v>
+        <v>408711993.139788</v>
       </c>
       <c r="AF5">
-        <v>126855637.3578823</v>
+        <v>419954048.0332848</v>
       </c>
       <c r="AG5">
-        <v>129429478.6360149</v>
+        <v>431821890.8759868</v>
       </c>
       <c r="AH5">
-        <v>130679815.460827</v>
+        <v>436088326.4368438</v>
       </c>
       <c r="AI5">
-        <v>132221180.7957116</v>
+        <v>441230547.8415307</v>
       </c>
       <c r="AJ5">
-        <v>134127078.5469503</v>
+        <v>447444994.8819616</v>
       </c>
       <c r="AK5">
-        <v>136475534.2275759</v>
+        <v>455097268.0652346</v>
       </c>
       <c r="AL5">
-        <v>139343680.3158577</v>
+        <v>464436340.3268287</v>
       </c>
       <c r="AM5">
-        <v>142801236.6333173</v>
+        <v>479230658.3394375</v>
       </c>
       <c r="AN5">
-        <v>146903305.3806001</v>
+        <v>496116100.3051373</v>
       </c>
       <c r="AO5">
-        <v>151683038.2274398</v>
+        <v>515215515.7933341</v>
       </c>
       <c r="AP5">
-        <v>157144855.0794366</v>
+        <v>536568011.7346686</v>
       </c>
       <c r="AQ5">
-        <v>163259108.8033133</v>
+        <v>560109515.4713387</v>
       </c>
       <c r="AR5">
-        <v>169959251.6889826</v>
+        <v>590589400.9766663</v>
       </c>
       <c r="AS5">
-        <v>177142380.5246485</v>
+        <v>622783286.4308184</v>
       </c>
       <c r="AT5">
-        <v>184673774.263663</v>
+        <v>656290307.4713689</v>
       </c>
       <c r="AU5">
-        <v>192395386.3210535</v>
+        <v>690628739.3443518</v>
       </c>
       <c r="AV5">
-        <v>201182580.9691409</v>
+        <v>725270747.1519195</v>
       </c>
       <c r="AW5">
-        <v>210118043.3229724</v>
+        <v>761124745.3075677</v>
       </c>
       <c r="AX5">
-        <v>218753248.3301207</v>
+        <v>796252871.3619215</v>
       </c>
       <c r="AY5">
-        <v>226962100.1018687</v>
+        <v>830232779.4110652</v>
       </c>
       <c r="AZ5">
-        <v>234653992.638981</v>
+        <v>862745976.7560526</v>
       </c>
       <c r="BA5">
-        <v>241779070.66393</v>
+        <v>893598097.459797</v>
       </c>
       <c r="BB5">
-        <v>248178210.1295266</v>
+        <v>921890224.4797045</v>
       </c>
       <c r="BC5">
-        <v>254037226.9172253</v>
+        <v>948537851.5807992</v>
       </c>
       <c r="BD5">
-        <v>259427137.3145033</v>
+        <v>973745216.8969907</v>
       </c>
       <c r="BE5">
-        <v>264449069.0482923</v>
+        <v>997827145.4746029</v>
       </c>
       <c r="BF5">
-        <v>269224901.7965671</v>
+        <v>1021182574.013609</v>
       </c>
       <c r="BG5">
-        <v>273736508.3144204</v>
+        <v>1043797884.791548</v>
       </c>
       <c r="BH5">
-        <v>278263905.1197827</v>
+        <v>1066600342.169731</v>
       </c>
       <c r="BI5">
-        <v>282926067.6264786</v>
+        <v>1090034032.850123</v>
       </c>
       <c r="BJ5">
-        <v>287823609.0494729</v>
+        <v>1114494943.546874</v>
       </c>
       <c r="BK5">
-        <v>293034844.6799679</v>
+        <v>1140310738.338404</v>
       </c>
       <c r="BL5">
-        <v>298501966.5950856</v>
+        <v>1167664732.742409</v>
       </c>
       <c r="BM5">
-        <v>304369567.302149</v>
+        <v>1196778906.612575</v>
       </c>
       <c r="BN5">
-        <v>310648137.2889194</v>
+        <v>1227721416.703719</v>
       </c>
       <c r="BO5">
-        <v>317328444.6282418</v>
+        <v>1260471359.613641</v>
       </c>
       <c r="BP5">
-        <v>324383463.8119491</v>
+        <v>1294924484.481469</v>
       </c>
       <c r="BQ5">
-        <v>331692057.2945307</v>
+        <v>1330917868.719015</v>
       </c>
       <c r="BR5">
-        <v>339277286.5355973</v>
+        <v>1368200418.318891</v>
       </c>
       <c r="BS5">
-        <v>347073774.5514776</v>
+        <v>1406493285.499178</v>
       </c>
       <c r="BT5">
-        <v>355009647.0967457</v>
+        <v>1445493845.332689</v>
       </c>
       <c r="BU5">
-        <v>363010191.1129319</v>
+        <v>1484894788.800795</v>
       </c>
       <c r="BV5">
-        <v>370925094.5085239</v>
+        <v>1524271053.716408</v>
       </c>
       <c r="BW5">
-        <v>378762482.9955006</v>
+        <v>1563493231.078429</v>
       </c>
       <c r="BX5">
-        <v>386462991.0068543</v>
+        <v>1602347039.877299</v>
       </c>
       <c r="BY5">
-        <v>393980196.853199</v>
+        <v>1640676949.947525</v>
       </c>
       <c r="BZ5">
-        <v>401283738.5241156</v>
+        <v>1678393412.127348</v>
       </c>
       <c r="CA5">
-        <v>408280876.2732419</v>
+        <v>1715240428.640182</v>
       </c>
       <c r="CB5">
-        <v>415058511.4081076</v>
+        <v>1751497887.069947</v>
       </c>
       <c r="CC5">
-        <v>421640677.5786378</v>
+        <v>1787270427.229874</v>
       </c>
       <c r="CD5">
-        <v>428066385.8594212</v>
+        <v>1822712222.000551</v>
       </c>
       <c r="CE5">
-        <v>434385750.5104311</v>
+        <v>1858014059.530243</v>
       </c>
       <c r="CF5">
-        <v>440564656.9219339</v>
+        <v>1892985760.290682</v>
       </c>
       <c r="CG5">
-        <v>446752319.5262827</v>
+        <v>1928249258.384048</v>
       </c>
       <c r="CH5">
-        <v>453004642.7786242</v>
+        <v>1964015155.392318</v>
       </c>
       <c r="CI5">
-        <v>459371317.4073758</v>
+        <v>2000472329.381085</v>
       </c>
       <c r="CJ5">
-        <v>465893010.7598801</v>
+        <v>2037777123.645952</v>
       </c>
       <c r="CK5">
-        <v>472475433.8540905</v>
+        <v>2075413190.781895</v>
       </c>
       <c r="CL5">
-        <v>479260476.2553428</v>
+        <v>2114083608.416897</v>
       </c>
       <c r="CM5">
-        <v>486253901.0831345</v>
+        <v>2153812424.165699</v>
       </c>
       <c r="CN5">
-        <v>493449978.9978794</v>
+        <v>2194578377.629296</v>
       </c>
       <c r="CO5">
-        <v>500832692.1735212</v>
+        <v>2236319014.300756</v>
       </c>
     </row>
   </sheetData>
